--- a/config_aomi/permission_server_config.xlsx
+++ b/config_aomi/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="2164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5010" uniqueCount="2166">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9357,10 +9357,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>not_cpl_jjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>jjj_cjj_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9969,6 +9965,18 @@
   </si>
   <si>
     <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_cpl_jjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是捕鱼奥秘</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10814,8 +10822,8 @@
   <dimension ref="A1:Q471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B472" sqref="B472"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A383" sqref="A383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11834,7 +11842,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11849,7 +11857,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11864,7 +11872,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11879,7 +11887,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11893,7 +11901,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -11907,7 +11915,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -11922,7 +11930,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -11937,7 +11945,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -11951,7 +11959,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -11969,7 +11977,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -15414,10 +15422,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2012</v>
+        <v>2163</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15495,10 +15503,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B453" s="27" t="s">
         <v>2015</v>
-      </c>
-      <c r="B453" s="27" t="s">
-        <v>2016</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15506,10 +15514,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15517,10 +15525,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15528,10 +15536,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15539,10 +15547,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B458" s="27" t="s">
         <v>2025</v>
-      </c>
-      <c r="B458" s="27" t="s">
-        <v>2026</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15550,10 +15558,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>2040</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>2041</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15561,10 +15569,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B462" s="27" t="s">
         <v>2052</v>
-      </c>
-      <c r="B462" s="27" t="s">
-        <v>2053</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15572,10 +15580,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B463" s="27" t="s">
         <v>2054</v>
-      </c>
-      <c r="B463" s="27" t="s">
-        <v>2055</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15583,18 +15591,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15602,10 +15610,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15613,10 +15621,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15624,10 +15632,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15635,10 +15643,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B471" s="3" t="s">
         <v>2148</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>2149</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15702,7 +15710,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -25513,7 +25521,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25547,7 +25555,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25561,7 +25569,7 @@
         <v>1634</v>
       </c>
       <c r="D291" s="102" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -25581,7 +25589,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25615,7 +25623,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -26527,7 +26535,7 @@
         <v>1715</v>
       </c>
       <c r="D321" s="101" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E321" s="102"/>
       <c r="F321" s="102"/>
@@ -27403,7 +27411,7 @@
         <v>1982</v>
       </c>
       <c r="D348" s="101" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27457,7 +27465,7 @@
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27491,7 +27499,7 @@
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27502,10 +27510,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="66" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D351" s="66" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E351" s="66"/>
       <c r="F351" s="66"/>
@@ -27525,7 +27533,7 @@
         <v>1610380800</v>
       </c>
       <c r="L351" s="66" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27559,7 +27567,7 @@
         <v>1610380800</v>
       </c>
       <c r="L352" s="66" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27570,10 +27578,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="106" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -27604,10 +27612,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27627,7 +27635,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27638,10 +27646,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27661,7 +27669,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27672,10 +27680,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27695,7 +27703,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27706,10 +27714,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="106" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27740,10 +27748,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D358" s="16" t="s">
         <v>2066</v>
-      </c>
-      <c r="D358" s="16" t="s">
-        <v>2067</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27763,7 +27771,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27774,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="108" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27797,7 +27805,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27808,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="108" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27831,7 +27839,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27842,10 +27850,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27865,7 +27873,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="45" customFormat="1">
@@ -27876,10 +27884,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E362" s="16"/>
       <c r="F362" s="16"/>
@@ -27910,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -27933,7 +27941,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -27944,10 +27952,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
@@ -27967,7 +27975,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="16" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -27978,10 +27986,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="31" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D365" s="16" t="s">
         <v>2101</v>
-      </c>
-      <c r="D365" s="16" t="s">
-        <v>2102</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -28001,7 +28009,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="16" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -28012,10 +28020,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="66" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -28029,13 +28037,13 @@
         <v>1</v>
       </c>
       <c r="J366" s="65" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="K366" s="65">
         <v>1615248000</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28046,10 +28054,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="66" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D367" s="66" t="s">
         <v>2122</v>
-      </c>
-      <c r="D367" s="66" t="s">
-        <v>2123</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -28063,13 +28071,13 @@
         <v>1</v>
       </c>
       <c r="J367" s="65" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="K367" s="65">
         <v>1615248000</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -28080,10 +28088,10 @@
         <v>1</v>
       </c>
       <c r="C368" s="66" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D368" s="66" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E368" s="65"/>
       <c r="F368" s="65"/>
@@ -28103,7 +28111,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="66" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -28114,10 +28122,10 @@
         <v>1</v>
       </c>
       <c r="C369" s="66" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D369" s="66" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E369" s="65"/>
       <c r="F369" s="65"/>
@@ -28137,7 +28145,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="66" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -28148,10 +28156,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="66" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E370" s="65"/>
       <c r="F370" s="65"/>
@@ -28182,10 +28190,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="66" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E371" s="65"/>
       <c r="F371" s="65"/>
@@ -28216,10 +28224,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28239,7 +28247,7 @@
         <v>1615248000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="22" customFormat="1">
@@ -28250,10 +28258,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E373" s="65"/>
       <c r="F373" s="65"/>
@@ -28267,13 +28275,13 @@
         <v>1</v>
       </c>
       <c r="J373" s="66" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="K373" s="65">
         <v>1615248000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -28284,10 +28292,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="26" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D374" s="26" t="s">
         <v>2143</v>
-      </c>
-      <c r="D374" s="26" t="s">
-        <v>2144</v>
       </c>
       <c r="G374" s="26">
         <v>405</v>
@@ -28299,7 +28307,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="26" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
@@ -28316,13 +28324,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I980"/>
+  <dimension ref="A1:I981"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C825" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C813" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D828" sqref="D828"/>
+      <selection pane="bottomRight" activeCell="G826" sqref="G826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48057,27 +48065,27 @@
       <c r="H825" s="8"/>
       <c r="I825" s="8"/>
     </row>
-    <row r="826" spans="1:9">
+    <row r="826" spans="1:9" s="14" customFormat="1">
       <c r="A826" s="8">
         <v>825</v>
       </c>
-      <c r="B826" s="9">
-        <v>328</v>
-      </c>
-      <c r="C826" s="49" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D826" s="9" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E826" s="9">
-        <v>5</v>
-      </c>
-      <c r="F826" s="9">
-        <v>1</v>
-      </c>
-      <c r="G826" s="9" t="s">
-        <v>1726</v>
+      <c r="B826" s="8">
+        <v>327</v>
+      </c>
+      <c r="C826" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D826" s="10" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E826" s="8">
+        <v>2</v>
+      </c>
+      <c r="F826" s="8">
+        <v>4</v>
+      </c>
+      <c r="G826" s="10" t="s">
+        <v>2165</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -48089,11 +48097,11 @@
       <c r="B827" s="9">
         <v>328</v>
       </c>
-      <c r="C827" s="10" t="s">
-        <v>1032</v>
+      <c r="C827" s="49" t="s">
+        <v>1799</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1903</v>
+        <v>1732</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -48101,8 +48109,8 @@
       <c r="F827" s="9">
         <v>1</v>
       </c>
-      <c r="G827" s="49" t="s">
-        <v>1797</v>
+      <c r="G827" s="9" t="s">
+        <v>1726</v>
       </c>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
@@ -48112,13 +48120,13 @@
         <v>827</v>
       </c>
       <c r="B828" s="9">
-        <v>329</v>
-      </c>
-      <c r="C828" s="9" t="s">
-        <v>884</v>
+        <v>328</v>
+      </c>
+      <c r="C828" s="10" t="s">
+        <v>1032</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1732</v>
+        <v>1903</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -48126,8 +48134,8 @@
       <c r="F828" s="9">
         <v>1</v>
       </c>
-      <c r="G828" s="9" t="s">
-        <v>1726</v>
+      <c r="G828" s="49" t="s">
+        <v>1797</v>
       </c>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
@@ -48139,11 +48147,11 @@
       <c r="B829" s="9">
         <v>329</v>
       </c>
-      <c r="C829" s="10" t="s">
-        <v>1032</v>
+      <c r="C829" s="9" t="s">
+        <v>884</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1903</v>
+        <v>1732</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -48151,8 +48159,8 @@
       <c r="F829" s="9">
         <v>1</v>
       </c>
-      <c r="G829" s="49" t="s">
-        <v>1795</v>
+      <c r="G829" s="9" t="s">
+        <v>1726</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -48161,23 +48169,23 @@
       <c r="A830" s="8">
         <v>829</v>
       </c>
-      <c r="B830" s="98">
-        <v>330</v>
-      </c>
-      <c r="C830" s="19" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D830" s="70">
-        <v>3</v>
-      </c>
-      <c r="E830" s="70">
-        <v>4</v>
-      </c>
-      <c r="F830" s="70">
-        <v>1</v>
-      </c>
-      <c r="G830" s="70" t="s">
-        <v>1464</v>
+      <c r="B830" s="9">
+        <v>329</v>
+      </c>
+      <c r="C830" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D830" s="9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E830" s="9">
+        <v>5</v>
+      </c>
+      <c r="F830" s="9">
+        <v>1</v>
+      </c>
+      <c r="G830" s="49" t="s">
+        <v>1795</v>
       </c>
       <c r="H830" s="8"/>
       <c r="I830" s="8"/>
@@ -48186,23 +48194,23 @@
       <c r="A831" s="8">
         <v>830</v>
       </c>
-      <c r="B831" s="99">
-        <v>331</v>
-      </c>
-      <c r="C831" s="99" t="s">
-        <v>865</v>
-      </c>
-      <c r="D831" s="99">
+      <c r="B831" s="98">
+        <v>330</v>
+      </c>
+      <c r="C831" s="19" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D831" s="70">
+        <v>3</v>
+      </c>
+      <c r="E831" s="70">
         <v>4</v>
       </c>
-      <c r="E831" s="99">
-        <v>3</v>
-      </c>
-      <c r="F831" s="99">
-        <v>1</v>
-      </c>
-      <c r="G831" s="100" t="s">
-        <v>1765</v>
+      <c r="F831" s="70">
+        <v>1</v>
+      </c>
+      <c r="G831" s="70" t="s">
+        <v>1464</v>
       </c>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
@@ -48218,16 +48226,16 @@
         <v>865</v>
       </c>
       <c r="D832" s="99">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E832" s="99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F832" s="99">
         <v>1</v>
       </c>
       <c r="G832" s="100" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -48236,23 +48244,23 @@
       <c r="A833" s="8">
         <v>832</v>
       </c>
-      <c r="B833" s="8">
-        <v>332</v>
-      </c>
-      <c r="C833" s="8" t="s">
+      <c r="B833" s="99">
+        <v>331</v>
+      </c>
+      <c r="C833" s="99" t="s">
         <v>865</v>
       </c>
-      <c r="D833" s="8">
-        <v>0</v>
-      </c>
-      <c r="E833" s="8">
-        <v>2</v>
-      </c>
-      <c r="F833" s="8">
-        <v>1</v>
-      </c>
-      <c r="G833" s="10" t="s">
-        <v>1779</v>
+      <c r="D833" s="99">
+        <v>10</v>
+      </c>
+      <c r="E833" s="99">
+        <v>4</v>
+      </c>
+      <c r="F833" s="99">
+        <v>1</v>
+      </c>
+      <c r="G833" s="100" t="s">
+        <v>1764</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -48261,23 +48269,23 @@
       <c r="A834" s="8">
         <v>833</v>
       </c>
-      <c r="B834" s="9">
-        <v>333</v>
-      </c>
-      <c r="C834" s="10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D834" s="9" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E834" s="9">
-        <v>5</v>
-      </c>
-      <c r="F834" s="9">
-        <v>1</v>
-      </c>
-      <c r="G834" s="49" t="s">
-        <v>1795</v>
+      <c r="B834" s="8">
+        <v>332</v>
+      </c>
+      <c r="C834" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="D834" s="8">
+        <v>0</v>
+      </c>
+      <c r="E834" s="8">
+        <v>2</v>
+      </c>
+      <c r="F834" s="8">
+        <v>1</v>
+      </c>
+      <c r="G834" s="10" t="s">
+        <v>1779</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -48287,22 +48295,22 @@
         <v>834</v>
       </c>
       <c r="B835" s="9">
-        <v>334</v>
-      </c>
-      <c r="C835" s="9" t="s">
-        <v>852</v>
+        <v>333</v>
+      </c>
+      <c r="C835" s="10" t="s">
+        <v>1032</v>
       </c>
       <c r="D835" s="9" t="s">
-        <v>857</v>
+        <v>1903</v>
       </c>
       <c r="E835" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F835" s="9">
         <v>1</v>
       </c>
-      <c r="G835" s="9" t="s">
-        <v>858</v>
+      <c r="G835" s="49" t="s">
+        <v>1795</v>
       </c>
       <c r="H835" s="8"/>
       <c r="I835" s="8"/>
@@ -48314,11 +48322,11 @@
       <c r="B836" s="9">
         <v>334</v>
       </c>
-      <c r="C836" s="10" t="s">
-        <v>1032</v>
+      <c r="C836" s="9" t="s">
+        <v>852</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1903</v>
+        <v>857</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -48327,7 +48335,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="9" t="s">
-        <v>1808</v>
+        <v>858</v>
       </c>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
@@ -48337,13 +48345,13 @@
         <v>836</v>
       </c>
       <c r="B837" s="9">
-        <v>335</v>
-      </c>
-      <c r="C837" s="9" t="s">
-        <v>852</v>
+        <v>334</v>
+      </c>
+      <c r="C837" s="10" t="s">
+        <v>1032</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>861</v>
+        <v>1903</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -48351,8 +48359,8 @@
       <c r="F837" s="9">
         <v>1</v>
       </c>
-      <c r="G837" s="49" t="s">
-        <v>862</v>
+      <c r="G837" s="9" t="s">
+        <v>1808</v>
       </c>
       <c r="H837" s="8"/>
       <c r="I837" s="8"/>
@@ -48364,11 +48372,11 @@
       <c r="B838" s="9">
         <v>335</v>
       </c>
-      <c r="C838" s="10" t="s">
-        <v>1032</v>
+      <c r="C838" s="9" t="s">
+        <v>852</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1903</v>
+        <v>861</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -48376,8 +48384,8 @@
       <c r="F838" s="9">
         <v>1</v>
       </c>
-      <c r="G838" s="9" t="s">
-        <v>1808</v>
+      <c r="G838" s="49" t="s">
+        <v>862</v>
       </c>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
@@ -48386,23 +48394,23 @@
       <c r="A839" s="8">
         <v>838</v>
       </c>
-      <c r="B839" s="84">
-        <v>336</v>
-      </c>
-      <c r="C839" s="84" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D839" s="85" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E839" s="84">
-        <v>5</v>
-      </c>
-      <c r="F839" s="84">
-        <v>1</v>
-      </c>
-      <c r="G839" s="85" t="s">
-        <v>1809</v>
+      <c r="B839" s="9">
+        <v>335</v>
+      </c>
+      <c r="C839" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D839" s="9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E839" s="9">
+        <v>2</v>
+      </c>
+      <c r="F839" s="9">
+        <v>1</v>
+      </c>
+      <c r="G839" s="9" t="s">
+        <v>1808</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -48411,23 +48419,23 @@
       <c r="A840" s="8">
         <v>839</v>
       </c>
-      <c r="B840" s="9">
+      <c r="B840" s="84">
         <v>336</v>
       </c>
-      <c r="C840" s="10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D840" s="9" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E840" s="9">
+      <c r="C840" s="84" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D840" s="85" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E840" s="84">
         <v>5</v>
       </c>
-      <c r="F840" s="9">
-        <v>1</v>
-      </c>
-      <c r="G840" s="9" t="s">
-        <v>1808</v>
+      <c r="F840" s="84">
+        <v>1</v>
+      </c>
+      <c r="G840" s="85" t="s">
+        <v>1809</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -48436,23 +48444,23 @@
       <c r="A841" s="8">
         <v>840</v>
       </c>
-      <c r="B841" s="92">
-        <v>337</v>
-      </c>
-      <c r="C841" s="93" t="s">
+      <c r="B841" s="9">
+        <v>336</v>
+      </c>
+      <c r="C841" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="D841" s="93" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E841" s="92">
-        <v>2</v>
-      </c>
-      <c r="F841" s="92">
-        <v>1</v>
-      </c>
-      <c r="G841" s="93" t="s">
-        <v>1825</v>
+      <c r="D841" s="9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E841" s="9">
+        <v>5</v>
+      </c>
+      <c r="F841" s="9">
+        <v>1</v>
+      </c>
+      <c r="G841" s="9" t="s">
+        <v>1808</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -48464,20 +48472,20 @@
       <c r="B842" s="92">
         <v>337</v>
       </c>
-      <c r="C842" s="92" t="s">
-        <v>880</v>
-      </c>
-      <c r="D842" s="92">
-        <v>1604968200</v>
+      <c r="C842" s="93" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D842" s="93" t="s">
+        <v>1824</v>
       </c>
       <c r="E842" s="92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F842" s="92">
         <v>1</v>
       </c>
       <c r="G842" s="93" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -48490,19 +48498,19 @@
         <v>337</v>
       </c>
       <c r="C843" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="D843" s="92" t="s">
-        <v>853</v>
+        <v>880</v>
+      </c>
+      <c r="D843" s="92">
+        <v>1604968200</v>
       </c>
       <c r="E843" s="92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F843" s="92">
         <v>1</v>
       </c>
-      <c r="G843" s="92" t="s">
-        <v>1828</v>
+      <c r="G843" s="93" t="s">
+        <v>1826</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -48511,23 +48519,23 @@
       <c r="A844" s="8">
         <v>843</v>
       </c>
-      <c r="B844" s="14">
-        <v>338</v>
-      </c>
-      <c r="C844" s="14" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D844" s="14" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E844" s="14">
-        <v>5</v>
-      </c>
-      <c r="F844" s="14">
-        <v>1</v>
-      </c>
-      <c r="G844" s="14" t="s">
-        <v>1833</v>
+      <c r="B844" s="92">
+        <v>337</v>
+      </c>
+      <c r="C844" s="92" t="s">
+        <v>852</v>
+      </c>
+      <c r="D844" s="92" t="s">
+        <v>853</v>
+      </c>
+      <c r="E844" s="92">
+        <v>2</v>
+      </c>
+      <c r="F844" s="92">
+        <v>1</v>
+      </c>
+      <c r="G844" s="92" t="s">
+        <v>1828</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -48542,8 +48550,8 @@
       <c r="C845" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="D845" s="15" t="s">
-        <v>2156</v>
+      <c r="D845" s="14" t="s">
+        <v>1903</v>
       </c>
       <c r="E845" s="14">
         <v>5</v>
@@ -48551,8 +48559,8 @@
       <c r="F845" s="14">
         <v>1</v>
       </c>
-      <c r="G845" s="15" t="s">
-        <v>2157</v>
+      <c r="G845" s="14" t="s">
+        <v>1833</v>
       </c>
       <c r="H845" s="8"/>
       <c r="I845" s="8"/>
@@ -48561,62 +48569,62 @@
       <c r="A846" s="8">
         <v>845</v>
       </c>
-      <c r="B846" s="8">
-        <v>339</v>
-      </c>
-      <c r="C846" s="10" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D846" s="10" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E846" s="8">
-        <v>2</v>
-      </c>
-      <c r="F846" s="8">
-        <v>1</v>
-      </c>
-      <c r="G846" s="10" t="s">
-        <v>1842</v>
-      </c>
-      <c r="H846" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="I846" s="8" t="s">
-        <v>860</v>
-      </c>
+      <c r="B846" s="14">
+        <v>338</v>
+      </c>
+      <c r="C846" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D846" s="15" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E846" s="14">
+        <v>5</v>
+      </c>
+      <c r="F846" s="14">
+        <v>1</v>
+      </c>
+      <c r="G846" s="15" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H846" s="8"/>
+      <c r="I846" s="8"/>
     </row>
     <row r="847" spans="1:9">
       <c r="A847" s="8">
         <v>846</v>
       </c>
       <c r="B847" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>1146</v>
+        <v>1841</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1903</v>
+        <v>1840</v>
       </c>
       <c r="E847" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F847" s="8">
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1881</v>
-      </c>
-      <c r="H847" s="8"/>
-      <c r="I847" s="8"/>
+        <v>1842</v>
+      </c>
+      <c r="H847" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="I847" s="8" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="848" spans="1:9">
       <c r="A848" s="8">
         <v>847</v>
       </c>
       <c r="B848" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C848" s="10" t="s">
         <v>1146</v>
@@ -48625,117 +48633,117 @@
         <v>1903</v>
       </c>
       <c r="E848" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F848" s="8">
         <v>1</v>
       </c>
       <c r="G848" s="10" t="s">
-        <v>1892</v>
-      </c>
-      <c r="H848" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I848" s="8" t="s">
-        <v>864</v>
-      </c>
+        <v>1881</v>
+      </c>
+      <c r="H848" s="8"/>
+      <c r="I848" s="8"/>
     </row>
     <row r="849" spans="1:9">
       <c r="A849" s="8">
         <v>848</v>
       </c>
-      <c r="B849" s="94">
-        <v>342</v>
-      </c>
-      <c r="C849" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D849" s="95" t="s">
-        <v>1893</v>
-      </c>
-      <c r="E849" s="94">
-        <v>2</v>
-      </c>
-      <c r="F849" s="94">
-        <v>1</v>
-      </c>
-      <c r="G849" s="95" t="s">
-        <v>1894</v>
-      </c>
-      <c r="H849" s="8"/>
-      <c r="I849" s="8"/>
-    </row>
-    <row r="850" spans="1:9" s="84" customFormat="1">
+      <c r="B849" s="8">
+        <v>341</v>
+      </c>
+      <c r="C849" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D849" s="10" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E849" s="8">
+        <v>2</v>
+      </c>
+      <c r="F849" s="8">
+        <v>1</v>
+      </c>
+      <c r="G849" s="10" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H849" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I849" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9">
       <c r="A850" s="8">
         <v>849</v>
       </c>
       <c r="B850" s="94">
         <v>342</v>
       </c>
-      <c r="C850" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D850" s="94">
-        <v>1</v>
+      <c r="C850" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D850" s="95" t="s">
+        <v>1893</v>
       </c>
       <c r="E850" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F850" s="94">
         <v>1</v>
       </c>
       <c r="G850" s="95" t="s">
-        <v>1884</v>
+        <v>1894</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
     </row>
-    <row r="851" spans="1:9">
+    <row r="851" spans="1:9" s="84" customFormat="1">
       <c r="A851" s="8">
         <v>850</v>
       </c>
       <c r="B851" s="94">
         <v>342</v>
       </c>
-      <c r="C851" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D851" s="95" t="s">
-        <v>1890</v>
+      <c r="C851" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D851" s="94">
+        <v>1</v>
       </c>
       <c r="E851" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F851" s="94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G851" s="95" t="s">
-        <v>1664</v>
+        <v>1884</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
     </row>
-    <row r="852" spans="1:9" s="92" customFormat="1">
+    <row r="852" spans="1:9">
       <c r="A852" s="8">
         <v>851</v>
       </c>
       <c r="B852" s="94">
         <v>342</v>
       </c>
-      <c r="C852" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D852" s="94">
-        <v>1</v>
+      <c r="C852" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D852" s="95" t="s">
+        <v>1890</v>
       </c>
       <c r="E852" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F852" s="94">
         <v>2</v>
       </c>
       <c r="G852" s="95" t="s">
-        <v>1884</v>
+        <v>1664</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -48747,20 +48755,20 @@
       <c r="B853" s="94">
         <v>342</v>
       </c>
-      <c r="C853" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D853" s="95" t="s">
-        <v>1891</v>
+      <c r="C853" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D853" s="94">
+        <v>1</v>
       </c>
       <c r="E853" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F853" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G853" s="95" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -48772,25 +48780,25 @@
       <c r="B854" s="94">
         <v>342</v>
       </c>
-      <c r="C854" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D854" s="94">
-        <v>1</v>
+      <c r="C854" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D854" s="95" t="s">
+        <v>1891</v>
       </c>
       <c r="E854" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F854" s="94">
         <v>3</v>
       </c>
       <c r="G854" s="95" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
     </row>
-    <row r="855" spans="1:9" s="14" customFormat="1">
+    <row r="855" spans="1:9" s="92" customFormat="1">
       <c r="A855" s="8">
         <v>854</v>
       </c>
@@ -48798,16 +48806,16 @@
         <v>342</v>
       </c>
       <c r="C855" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D855" s="94" t="s">
-        <v>1903</v>
+        <v>865</v>
+      </c>
+      <c r="D855" s="94">
+        <v>1</v>
       </c>
       <c r="E855" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F855" s="94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G855" s="95" t="s">
         <v>1884</v>
@@ -48815,7 +48823,7 @@
       <c r="H855" s="8"/>
       <c r="I855" s="8"/>
     </row>
-    <row r="856" spans="1:9" s="8" customFormat="1">
+    <row r="856" spans="1:9" s="14" customFormat="1">
       <c r="A856" s="8">
         <v>855</v>
       </c>
@@ -48823,42 +48831,44 @@
         <v>342</v>
       </c>
       <c r="C856" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D856" s="94">
-        <v>1</v>
+        <v>1032</v>
+      </c>
+      <c r="D856" s="94" t="s">
+        <v>1903</v>
       </c>
       <c r="E856" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F856" s="94">
         <v>4</v>
       </c>
       <c r="G856" s="95" t="s">
-        <v>1895</v>
-      </c>
+        <v>1884</v>
+      </c>
+      <c r="H856" s="8"/>
+      <c r="I856" s="8"/>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
       <c r="A857" s="8">
         <v>856</v>
       </c>
-      <c r="B857" s="9">
-        <v>343</v>
-      </c>
-      <c r="C857" s="49" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D857" s="9">
-        <v>1</v>
-      </c>
-      <c r="E857" s="9">
+      <c r="B857" s="94">
+        <v>342</v>
+      </c>
+      <c r="C857" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D857" s="94">
+        <v>1</v>
+      </c>
+      <c r="E857" s="94">
         <v>3</v>
       </c>
-      <c r="F857" s="9">
-        <v>1</v>
-      </c>
-      <c r="G857" s="10" t="s">
-        <v>1897</v>
+      <c r="F857" s="94">
+        <v>4</v>
+      </c>
+      <c r="G857" s="95" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="8" customFormat="1">
@@ -48868,46 +48878,44 @@
       <c r="B858" s="9">
         <v>343</v>
       </c>
-      <c r="C858" s="10" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D858" s="10" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E858" s="8">
-        <v>5</v>
-      </c>
-      <c r="F858" s="8">
+      <c r="C858" s="49" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D858" s="9">
+        <v>1</v>
+      </c>
+      <c r="E858" s="9">
+        <v>3</v>
+      </c>
+      <c r="F858" s="9">
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="859" spans="1:9" s="94" customFormat="1">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" s="8" customFormat="1">
       <c r="A859" s="8">
         <v>858</v>
       </c>
-      <c r="B859" s="8">
+      <c r="B859" s="9">
         <v>343</v>
       </c>
       <c r="C859" s="10" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D859" s="8">
-        <v>9</v>
+        <v>1880</v>
+      </c>
+      <c r="D859" s="10" t="s">
+        <v>1882</v>
       </c>
       <c r="E859" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F859" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1898</v>
-      </c>
-      <c r="H859" s="8"/>
-      <c r="I859" s="8"/>
+        <v>1886</v>
+      </c>
     </row>
     <row r="860" spans="1:9" s="94" customFormat="1">
       <c r="A860" s="8">
@@ -48917,19 +48925,19 @@
         <v>343</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D860" s="10" t="s">
-        <v>1906</v>
+        <v>1887</v>
+      </c>
+      <c r="D860" s="8">
+        <v>9</v>
       </c>
       <c r="E860" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F860" s="8">
         <v>2</v>
       </c>
       <c r="G860" s="10" t="s">
-        <v>1888</v>
+        <v>1898</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -48945,16 +48953,16 @@
         <v>1146</v>
       </c>
       <c r="D861" s="10" t="s">
-        <v>1885</v>
+        <v>1906</v>
       </c>
       <c r="E861" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F861" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G861" s="10" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -48970,16 +48978,16 @@
         <v>1146</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1903</v>
+        <v>1885</v>
       </c>
       <c r="E862" s="8">
         <v>2</v>
       </c>
       <c r="F862" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
@@ -48989,22 +48997,22 @@
         <v>862</v>
       </c>
       <c r="B863" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="D863" s="10" t="s">
-        <v>1931</v>
+        <v>1903</v>
       </c>
       <c r="E863" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F863" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>999</v>
+        <v>1889</v>
       </c>
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
@@ -49020,16 +49028,16 @@
         <v>852</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1000</v>
+        <v>1931</v>
       </c>
       <c r="E864" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F864" s="8">
         <v>1</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
@@ -49042,10 +49050,10 @@
         <v>344</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>1032</v>
+        <v>852</v>
       </c>
       <c r="D865" s="10" t="s">
-        <v>1932</v>
+        <v>1000</v>
       </c>
       <c r="E865" s="8">
         <v>2</v>
@@ -49054,7 +49062,7 @@
         <v>1</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>1079</v>
+        <v>1001</v>
       </c>
       <c r="H865" s="8"/>
       <c r="I865" s="8"/>
@@ -49067,44 +49075,44 @@
         <v>344</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D866" s="8">
-        <v>600</v>
+        <v>1032</v>
+      </c>
+      <c r="D866" s="10" t="s">
+        <v>1932</v>
       </c>
       <c r="E866" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F866" s="8">
         <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1002</v>
+        <v>1079</v>
       </c>
       <c r="H866" s="8"/>
       <c r="I866" s="8"/>
     </row>
-    <row r="867" spans="1:9">
+    <row r="867" spans="1:9" s="94" customFormat="1">
       <c r="A867" s="8">
         <v>866</v>
       </c>
       <c r="B867" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="D867" s="10" t="s">
-        <v>1931</v>
+        <v>899</v>
+      </c>
+      <c r="D867" s="8">
+        <v>600</v>
       </c>
       <c r="E867" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F867" s="8">
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H867" s="8"/>
       <c r="I867" s="8"/>
@@ -49120,16 +49128,16 @@
         <v>852</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1000</v>
+        <v>1931</v>
       </c>
       <c r="E868" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F868" s="8">
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H868" s="8"/>
       <c r="I868" s="8"/>
@@ -49142,19 +49150,19 @@
         <v>345</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>1032</v>
+        <v>852</v>
       </c>
       <c r="D869" s="10" t="s">
-        <v>1915</v>
+        <v>1000</v>
       </c>
       <c r="E869" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F869" s="8">
         <v>1</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1068</v>
+        <v>1004</v>
       </c>
       <c r="H869" s="8"/>
       <c r="I869" s="8"/>
@@ -49167,44 +49175,44 @@
         <v>345</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D870" s="8">
-        <v>600</v>
+        <v>1032</v>
+      </c>
+      <c r="D870" s="10" t="s">
+        <v>1915</v>
       </c>
       <c r="E870" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F870" s="8">
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1002</v>
+        <v>1068</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
     </row>
-    <row r="871" spans="1:9" s="14" customFormat="1">
+    <row r="871" spans="1:9">
       <c r="A871" s="8">
         <v>870</v>
       </c>
       <c r="B871" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D871" s="10" t="s">
-        <v>1904</v>
+        <v>899</v>
+      </c>
+      <c r="D871" s="8">
+        <v>600</v>
       </c>
       <c r="E871" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F871" s="8">
         <v>1</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>1910</v>
+        <v>1002</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -49216,25 +49224,25 @@
       <c r="B872" s="8">
         <v>346</v>
       </c>
-      <c r="C872" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D872" s="8" t="s">
-        <v>1905</v>
+      <c r="C872" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D872" s="10" t="s">
+        <v>1904</v>
       </c>
       <c r="E872" s="8">
         <v>2</v>
       </c>
       <c r="F872" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H872" s="8"/>
       <c r="I872" s="8"/>
     </row>
-    <row r="873" spans="1:9" s="8" customFormat="1">
+    <row r="873" spans="1:9" s="14" customFormat="1">
       <c r="A873" s="8">
         <v>872</v>
       </c>
@@ -49244,18 +49252,20 @@
       <c r="C873" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="D873" s="10" t="s">
-        <v>1907</v>
+      <c r="D873" s="8" t="s">
+        <v>1905</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
       </c>
       <c r="F873" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1912</v>
-      </c>
+        <v>1911</v>
+      </c>
+      <c r="H873" s="8"/>
+      <c r="I873" s="8"/>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
       <c r="A874" s="8">
@@ -49268,16 +49278,16 @@
         <v>1032</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
       </c>
       <c r="F874" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -49285,22 +49295,22 @@
         <v>874</v>
       </c>
       <c r="B875" s="8">
-        <v>347</v>
-      </c>
-      <c r="C875" s="10" t="s">
-        <v>1146</v>
+        <v>346</v>
+      </c>
+      <c r="C875" s="8" t="s">
+        <v>1032</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
       </c>
       <c r="F875" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1888</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -49308,16 +49318,16 @@
         <v>875</v>
       </c>
       <c r="B876" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D876" s="10" t="s">
         <v>1906</v>
       </c>
       <c r="E876" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
@@ -49331,22 +49341,22 @@
         <v>876</v>
       </c>
       <c r="B877" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1600</v>
+        <v>1906</v>
       </c>
       <c r="E877" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F877" s="8">
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1923</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="8" customFormat="1">
@@ -49354,13 +49364,13 @@
         <v>877</v>
       </c>
       <c r="B878" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C878" s="10" t="s">
         <v>1146</v>
       </c>
       <c r="D878" s="10" t="s">
-        <v>1818</v>
+        <v>1600</v>
       </c>
       <c r="E878" s="8">
         <v>2</v>
@@ -49369,7 +49379,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1511</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -49377,22 +49387,22 @@
         <v>878</v>
       </c>
       <c r="B879" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1900</v>
+        <v>1818</v>
       </c>
       <c r="E879" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F879" s="8">
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1910</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="8" customFormat="1">
@@ -49400,7 +49410,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C880" s="10" t="s">
         <v>1142</v>
@@ -49409,7 +49419,7 @@
         <v>1900</v>
       </c>
       <c r="E880" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F880" s="8">
         <v>1</v>
@@ -49418,7 +49428,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="881" spans="1:9">
+    <row r="881" spans="1:9" s="8" customFormat="1">
       <c r="A881" s="8">
         <v>880</v>
       </c>
@@ -49426,22 +49436,20 @@
         <v>352</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>1938</v>
+        <v>1142</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
       </c>
       <c r="F881" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H881" s="8"/>
-      <c r="I881" s="8"/>
+        <v>1910</v>
+      </c>
     </row>
     <row r="882" spans="1:9">
       <c r="A882" s="8">
@@ -49451,19 +49459,19 @@
         <v>352</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>1142</v>
+        <v>1938</v>
       </c>
       <c r="D882" s="10" t="s">
-        <v>1818</v>
+        <v>1600</v>
       </c>
       <c r="E882" s="8">
         <v>2</v>
       </c>
       <c r="F882" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -49473,22 +49481,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>1947</v>
+        <v>1142</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>1948</v>
+        <v>1818</v>
       </c>
       <c r="E883" s="8">
         <v>2</v>
       </c>
       <c r="F883" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -49498,22 +49506,22 @@
         <v>883</v>
       </c>
       <c r="B884" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>1142</v>
+        <v>1947</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1818</v>
+        <v>1948</v>
       </c>
       <c r="E884" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F884" s="8">
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1940</v>
+        <v>1949</v>
       </c>
       <c r="H884" s="8"/>
       <c r="I884" s="8"/>
@@ -49526,10 +49534,10 @@
         <v>354</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="D885" s="10" t="s">
-        <v>1915</v>
+        <v>1818</v>
       </c>
       <c r="E885" s="8">
         <v>5</v>
@@ -49538,7 +49546,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1068</v>
+        <v>1940</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -49548,22 +49556,22 @@
         <v>885</v>
       </c>
       <c r="B886" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D886" s="8">
-        <v>100</v>
+        <v>1032</v>
+      </c>
+      <c r="D886" s="10" t="s">
+        <v>1915</v>
       </c>
       <c r="E886" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F886" s="8">
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1954</v>
+        <v>1068</v>
       </c>
       <c r="H886" s="8"/>
       <c r="I886" s="8"/>
@@ -49576,19 +49584,19 @@
         <v>355</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D887" s="10" t="s">
-        <v>1821</v>
+        <v>899</v>
+      </c>
+      <c r="D887" s="8">
+        <v>100</v>
       </c>
       <c r="E887" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F887" s="8">
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1511</v>
+        <v>1954</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -49601,19 +49609,19 @@
         <v>355</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D888" s="8">
-        <v>100</v>
+        <v>1142</v>
+      </c>
+      <c r="D888" s="10" t="s">
+        <v>1821</v>
       </c>
       <c r="E888" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F888" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1954</v>
+        <v>1511</v>
       </c>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
@@ -49626,19 +49634,19 @@
         <v>355</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D889" s="10" t="s">
-        <v>1915</v>
+        <v>899</v>
+      </c>
+      <c r="D889" s="8">
+        <v>100</v>
       </c>
       <c r="E889" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F889" s="8">
         <v>2</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1511</v>
+        <v>1954</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -49648,22 +49656,22 @@
         <v>889</v>
       </c>
       <c r="B890" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C890" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D890" s="10" t="s">
-        <v>1959</v>
+        <v>1915</v>
       </c>
       <c r="E890" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F890" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1960</v>
+        <v>1511</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -49676,19 +49684,19 @@
         <v>356</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D891" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D891" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="E891" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F891" s="8">
         <v>1</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -49698,22 +49706,22 @@
         <v>891</v>
       </c>
       <c r="B892" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D892" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D892" s="10">
+        <v>2</v>
       </c>
       <c r="E892" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F892" s="8">
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -49726,24 +49734,24 @@
         <v>357</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D893" s="10">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D893" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="E893" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F893" s="8">
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H893" s="8"/>
       <c r="I893" s="8"/>
     </row>
-    <row r="894" spans="1:9" s="8" customFormat="1">
+    <row r="894" spans="1:9">
       <c r="A894" s="8">
         <v>893</v>
       </c>
@@ -49754,10 +49762,10 @@
         <v>1117</v>
       </c>
       <c r="D894" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E894" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F894" s="8">
         <v>1</v>
@@ -49765,31 +49773,31 @@
       <c r="G894" s="10" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="895" spans="1:9">
+      <c r="H894" s="8"/>
+      <c r="I894" s="8"/>
+    </row>
+    <row r="895" spans="1:9" s="8" customFormat="1">
       <c r="A895" s="8">
         <v>894</v>
       </c>
       <c r="B895" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D895" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D895" s="10">
+        <v>5</v>
       </c>
       <c r="E895" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F895" s="8">
         <v>1</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>1960</v>
-      </c>
-      <c r="H895" s="8"/>
-      <c r="I895" s="8"/>
+        <v>1961</v>
+      </c>
     </row>
     <row r="896" spans="1:9">
       <c r="A896" s="8">
@@ -49799,19 +49807,19 @@
         <v>358</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D896" s="10">
-        <v>6</v>
+        <v>1142</v>
+      </c>
+      <c r="D896" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="E896" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F896" s="8">
         <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -49827,10 +49835,10 @@
         <v>1117</v>
       </c>
       <c r="D897" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E897" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F897" s="8">
         <v>1</v>
@@ -49846,22 +49854,22 @@
         <v>897</v>
       </c>
       <c r="B898" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D898" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D898" s="10">
+        <v>7</v>
       </c>
       <c r="E898" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F898" s="8">
         <v>1</v>
       </c>
       <c r="G898" s="10" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -49874,19 +49882,19 @@
         <v>359</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D899" s="10">
-        <v>8</v>
+        <v>1142</v>
+      </c>
+      <c r="D899" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="E899" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F899" s="8">
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -49896,22 +49904,22 @@
         <v>899</v>
       </c>
       <c r="B900" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D900" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D900" s="10">
+        <v>8</v>
       </c>
       <c r="E900" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F900" s="8">
         <v>1</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -49924,10 +49932,10 @@
         <v>360</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D901" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D901" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="E901" s="8">
         <v>2</v>
@@ -49936,23 +49944,23 @@
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H901" s="8"/>
       <c r="I901" s="8"/>
     </row>
-    <row r="902" spans="1:9" s="8" customFormat="1">
+    <row r="902" spans="1:9">
       <c r="A902" s="8">
         <v>901</v>
       </c>
       <c r="B902" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D902" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D902" s="10">
+        <v>2</v>
       </c>
       <c r="E902" s="8">
         <v>2</v>
@@ -49961,8 +49969,10 @@
         <v>1</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>1960</v>
-      </c>
+        <v>1961</v>
+      </c>
+      <c r="H902" s="8"/>
+      <c r="I902" s="8"/>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
       <c r="A903" s="8">
@@ -49972,19 +49982,19 @@
         <v>361</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D903" s="10">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D903" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="E903" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F903" s="8">
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -49998,10 +50008,10 @@
         <v>1117</v>
       </c>
       <c r="D904" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E904" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F904" s="8">
         <v>1</v>
@@ -50015,22 +50025,22 @@
         <v>904</v>
       </c>
       <c r="B905" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D905" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D905" s="10">
+        <v>5</v>
       </c>
       <c r="E905" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F905" s="8">
         <v>1</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -50041,19 +50051,19 @@
         <v>362</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D906" s="10">
-        <v>6</v>
+        <v>1142</v>
+      </c>
+      <c r="D906" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="E906" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F906" s="8">
         <v>1</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -50067,10 +50077,10 @@
         <v>1117</v>
       </c>
       <c r="D907" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E907" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F907" s="8">
         <v>1</v>
@@ -50084,22 +50094,22 @@
         <v>907</v>
       </c>
       <c r="B908" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D908" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D908" s="10">
+        <v>7</v>
       </c>
       <c r="E908" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F908" s="8">
         <v>1</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -50110,19 +50120,19 @@
         <v>363</v>
       </c>
       <c r="C909" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D909" s="10">
-        <v>8</v>
+        <v>1142</v>
+      </c>
+      <c r="D909" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="E909" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F909" s="8">
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -50130,22 +50140,22 @@
         <v>909</v>
       </c>
       <c r="B910" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C910" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D910" s="10" t="s">
-        <v>1958</v>
+        <v>1117</v>
+      </c>
+      <c r="D910" s="10">
+        <v>8</v>
       </c>
       <c r="E910" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F910" s="8">
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>2061</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -50156,19 +50166,19 @@
         <v>364</v>
       </c>
       <c r="C911" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D911" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D911" s="10" t="s">
+        <v>1958</v>
       </c>
       <c r="E911" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F911" s="8">
         <v>1</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>1961</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -50179,19 +50189,19 @@
         <v>364</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D912" s="10" t="s">
-        <v>1972</v>
+        <v>1117</v>
+      </c>
+      <c r="D912" s="10">
+        <v>2</v>
       </c>
       <c r="E912" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F912" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G912" s="10" t="s">
-        <v>2004</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -50202,19 +50212,19 @@
         <v>364</v>
       </c>
       <c r="C913" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D913" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D913" s="10" t="s">
+        <v>1972</v>
       </c>
       <c r="E913" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F913" s="8">
         <v>2</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>1961</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -50222,22 +50232,22 @@
         <v>913</v>
       </c>
       <c r="B914" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C914" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D914" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E914" s="8">
         <v>3</v>
       </c>
       <c r="F914" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>1977</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -50245,13 +50255,13 @@
         <v>914</v>
       </c>
       <c r="B915" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C915" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D915" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E915" s="8">
         <v>3</v>
@@ -50260,7 +50270,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="10" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -50268,22 +50278,22 @@
         <v>915</v>
       </c>
       <c r="B916" s="8">
-        <v>367</v>
-      </c>
-      <c r="C916" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D916" s="8" t="s">
-        <v>1657</v>
+        <v>366</v>
+      </c>
+      <c r="C916" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D916" s="10">
+        <v>12</v>
       </c>
       <c r="E916" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F916" s="8">
         <v>1</v>
       </c>
-      <c r="G916" s="8" t="s">
-        <v>1983</v>
+      <c r="G916" s="10" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -50291,22 +50301,22 @@
         <v>916</v>
       </c>
       <c r="B917" s="8">
-        <v>368</v>
-      </c>
-      <c r="C917" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D917" s="10" t="s">
-        <v>1900</v>
+        <v>367</v>
+      </c>
+      <c r="C917" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D917" s="8" t="s">
+        <v>1657</v>
       </c>
       <c r="E917" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F917" s="8">
         <v>1</v>
       </c>
-      <c r="G917" s="10" t="s">
-        <v>2005</v>
+      <c r="G917" s="8" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -50317,19 +50327,19 @@
         <v>368</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>1987</v>
+        <v>1142</v>
       </c>
       <c r="D918" s="10" t="s">
-        <v>1988</v>
+        <v>1900</v>
       </c>
       <c r="E918" s="8">
         <v>2</v>
       </c>
       <c r="F918" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>1989</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -50337,22 +50347,22 @@
         <v>918</v>
       </c>
       <c r="B919" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>1142</v>
+        <v>1987</v>
       </c>
       <c r="D919" s="10" t="s">
-        <v>1971</v>
+        <v>1988</v>
       </c>
       <c r="E919" s="8">
         <v>2</v>
       </c>
       <c r="F919" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>2004</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -50366,16 +50376,16 @@
         <v>1142</v>
       </c>
       <c r="D920" s="10" t="s">
-        <v>1997</v>
+        <v>1971</v>
       </c>
       <c r="E920" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F920" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>1986</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -50383,22 +50393,22 @@
         <v>920</v>
       </c>
       <c r="B921" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C921" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D921" s="10" t="s">
-        <v>1958</v>
+        <v>1997</v>
       </c>
       <c r="E921" s="8">
         <v>5</v>
       </c>
       <c r="F921" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G921" s="10" t="s">
-        <v>1780</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="922" spans="1:7" s="8" customFormat="1">
@@ -50406,7 +50416,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C922" s="10" t="s">
         <v>1142</v>
@@ -50415,36 +50425,36 @@
         <v>1958</v>
       </c>
       <c r="E922" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F922" s="8">
         <v>1</v>
       </c>
       <c r="G922" s="10" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="923" spans="1:7" s="20" customFormat="1">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" s="8" customFormat="1">
       <c r="A923" s="8">
         <v>922</v>
       </c>
-      <c r="B923" s="20">
-        <v>372</v>
-      </c>
-      <c r="C923" s="21" t="s">
+      <c r="B923" s="8">
+        <v>371</v>
+      </c>
+      <c r="C923" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D923" s="21" t="s">
+      <c r="D923" s="10" t="s">
         <v>1958</v>
       </c>
-      <c r="E923" s="20">
-        <v>5</v>
-      </c>
-      <c r="F923" s="20">
-        <v>1</v>
-      </c>
-      <c r="G923" s="21" t="s">
-        <v>1780</v>
+      <c r="E923" s="8">
+        <v>2</v>
+      </c>
+      <c r="F923" s="8">
+        <v>1</v>
+      </c>
+      <c r="G923" s="10" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="20" customFormat="1">
@@ -50452,7 +50462,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="20">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C924" s="21" t="s">
         <v>1142</v>
@@ -50461,36 +50471,36 @@
         <v>1958</v>
       </c>
       <c r="E924" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F924" s="20">
         <v>1</v>
       </c>
       <c r="G924" s="21" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="925" spans="1:7" s="8" customFormat="1">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" s="20" customFormat="1">
       <c r="A925" s="8">
         <v>924</v>
       </c>
-      <c r="B925" s="8">
-        <v>374</v>
-      </c>
-      <c r="C925" s="10" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D925" s="10" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E925" s="8">
-        <v>5</v>
-      </c>
-      <c r="F925" s="8">
-        <v>1</v>
-      </c>
-      <c r="G925" s="10" t="s">
-        <v>1960</v>
+      <c r="B925" s="20">
+        <v>373</v>
+      </c>
+      <c r="C925" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D925" s="21" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E925" s="20">
+        <v>2</v>
+      </c>
+      <c r="F925" s="20">
+        <v>1</v>
+      </c>
+      <c r="G925" s="21" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -50498,22 +50508,22 @@
         <v>925</v>
       </c>
       <c r="B926" s="8">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>1987</v>
+        <v>2011</v>
       </c>
       <c r="D926" s="10" t="s">
-        <v>1600</v>
+        <v>1903</v>
       </c>
       <c r="E926" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F926" s="8">
         <v>1</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>2021</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -50527,16 +50537,16 @@
         <v>1987</v>
       </c>
       <c r="D927" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E927" s="8">
+        <v>2</v>
+      </c>
+      <c r="F927" s="8">
+        <v>1</v>
+      </c>
+      <c r="G927" s="10" t="s">
         <v>2020</v>
-      </c>
-      <c r="E927" s="8">
-        <v>2</v>
-      </c>
-      <c r="F927" s="8">
-        <v>2</v>
-      </c>
-      <c r="G927" s="10" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -50544,22 +50554,22 @@
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C928" s="10" t="s">
         <v>1987</v>
       </c>
       <c r="D928" s="10" t="s">
-        <v>1820</v>
+        <v>2019</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
       </c>
       <c r="F928" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="929" spans="1:8" s="8" customFormat="1">
@@ -50567,13 +50577,13 @@
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C929" s="10" t="s">
         <v>1987</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1900</v>
+        <v>1820</v>
       </c>
       <c r="E929" s="8">
         <v>2</v>
@@ -50590,13 +50600,13 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C930" s="10" t="s">
         <v>1987</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1924</v>
+        <v>1900</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -50613,13 +50623,13 @@
         <v>930</v>
       </c>
       <c r="B931" s="8">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>1143</v>
+        <v>1987</v>
       </c>
       <c r="D931" s="10" t="s">
-        <v>1958</v>
+        <v>1924</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -50628,7 +50638,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>2005</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="932" spans="1:8" s="8" customFormat="1">
@@ -50639,10 +50649,10 @@
         <v>379</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D932" s="10">
-        <v>0</v>
+        <v>1143</v>
+      </c>
+      <c r="D932" s="10" t="s">
+        <v>1958</v>
       </c>
       <c r="E932" s="8">
         <v>2</v>
@@ -50651,34 +50661,33 @@
         <v>1</v>
       </c>
       <c r="G932" s="10" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="933" spans="1:8">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" s="8" customFormat="1">
       <c r="A933" s="8">
         <v>932</v>
       </c>
       <c r="B933" s="8">
-        <v>380</v>
-      </c>
-      <c r="C933" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D933" s="8" t="s">
-        <v>1657</v>
+        <v>379</v>
+      </c>
+      <c r="C933" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D933" s="10">
+        <v>0</v>
       </c>
       <c r="E933" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F933" s="8">
         <v>1</v>
       </c>
-      <c r="G933" s="8" t="s">
-        <v>1983</v>
-      </c>
-      <c r="H933" s="8"/>
-    </row>
-    <row r="934" spans="1:8" ht="16.5">
+      <c r="G933" s="10" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8">
       <c r="A934" s="8">
         <v>933</v>
       </c>
@@ -50686,23 +50695,23 @@
         <v>380</v>
       </c>
       <c r="C934" s="8" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D934" s="104" t="s">
-        <v>2033</v>
+        <v>1032</v>
+      </c>
+      <c r="D934" s="8" t="s">
+        <v>1657</v>
       </c>
       <c r="E934" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F934" s="8">
         <v>1</v>
       </c>
       <c r="G934" s="8" t="s">
-        <v>2034</v>
+        <v>1983</v>
       </c>
       <c r="H934" s="8"/>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" ht="16.5">
       <c r="A935" s="8">
         <v>934</v>
       </c>
@@ -50710,19 +50719,19 @@
         <v>380</v>
       </c>
       <c r="C935" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D935" s="8" t="s">
-        <v>1905</v>
+        <v>2031</v>
+      </c>
+      <c r="D935" s="104" t="s">
+        <v>2032</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
       </c>
       <c r="F935" s="8">
-        <v>2</v>
-      </c>
-      <c r="G935" s="10" t="s">
-        <v>2035</v>
+        <v>1</v>
+      </c>
+      <c r="G935" s="8" t="s">
+        <v>2033</v>
       </c>
       <c r="H935" s="8"/>
     </row>
@@ -50734,10 +50743,10 @@
         <v>380</v>
       </c>
       <c r="C936" s="8" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D936" s="10" t="s">
-        <v>2037</v>
+        <v>1032</v>
+      </c>
+      <c r="D936" s="8" t="s">
+        <v>1905</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
@@ -50745,46 +50754,47 @@
       <c r="F936" s="8">
         <v>2</v>
       </c>
-      <c r="G936" s="8" t="s">
-        <v>2038</v>
+      <c r="G936" s="10" t="s">
+        <v>2034</v>
       </c>
       <c r="H936" s="8"/>
     </row>
-    <row r="937" spans="1:8" s="8" customFormat="1">
+    <row r="937" spans="1:8">
       <c r="A937" s="8">
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>381</v>
-      </c>
-      <c r="C937" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D937" s="10">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="C937" s="8" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D937" s="10" t="s">
+        <v>2036</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
       </c>
       <c r="F937" s="8">
-        <v>1</v>
-      </c>
-      <c r="G937" s="10" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="938" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="G937" s="8" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H937" s="8"/>
+    </row>
+    <row r="938" spans="1:8" s="8" customFormat="1">
       <c r="A938" s="8">
         <v>937</v>
       </c>
       <c r="B938" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D938" s="10" t="s">
-        <v>1212</v>
+        <v>1117</v>
+      </c>
+      <c r="D938" s="10">
+        <v>0</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
@@ -50793,9 +50803,8 @@
         <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H938" s="8"/>
+        <v>2029</v>
+      </c>
     </row>
     <row r="939" spans="1:8">
       <c r="A939" s="8">
@@ -50805,19 +50814,19 @@
         <v>382</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>852</v>
+        <v>1052</v>
       </c>
       <c r="D939" s="10" t="s">
-        <v>857</v>
+        <v>1212</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
       </c>
       <c r="F939" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2047</v>
+        <v>1176</v>
       </c>
       <c r="H939" s="8"/>
     </row>
@@ -50832,16 +50841,16 @@
         <v>852</v>
       </c>
       <c r="D940" s="10" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E940" s="8">
         <v>2</v>
       </c>
       <c r="F940" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -50850,22 +50859,22 @@
         <v>940</v>
       </c>
       <c r="B941" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D941" s="8">
-        <v>1</v>
+        <v>852</v>
+      </c>
+      <c r="D941" s="10" t="s">
+        <v>861</v>
       </c>
       <c r="E941" s="8">
+        <v>2</v>
+      </c>
+      <c r="F941" s="8">
         <v>3</v>
       </c>
-      <c r="F941" s="8">
-        <v>1</v>
-      </c>
       <c r="G941" s="10" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -50880,16 +50889,16 @@
         <v>1117</v>
       </c>
       <c r="D942" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E942" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F942" s="8">
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -50900,20 +50909,20 @@
       <c r="B943" s="8">
         <v>383</v>
       </c>
-      <c r="C943" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D943" s="8" t="s">
-        <v>853</v>
+      <c r="C943" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D943" s="8">
+        <v>7</v>
       </c>
       <c r="E943" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F943" s="8">
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -50922,22 +50931,22 @@
         <v>943</v>
       </c>
       <c r="B944" s="8">
-        <v>384</v>
-      </c>
-      <c r="C944" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D944" s="8">
-        <v>8</v>
+        <v>383</v>
+      </c>
+      <c r="C944" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D944" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E944" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F944" s="8">
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -50952,16 +50961,16 @@
         <v>1117</v>
       </c>
       <c r="D945" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E945" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F945" s="8">
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="H945" s="8"/>
     </row>
@@ -50972,113 +50981,114 @@
       <c r="B946" s="8">
         <v>384</v>
       </c>
-      <c r="C946" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D946" s="8" t="s">
-        <v>853</v>
+      <c r="C946" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D946" s="8">
+        <v>12</v>
       </c>
       <c r="E946" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F946" s="8">
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="H946" s="8"/>
     </row>
-    <row r="947" spans="1:8" s="8" customFormat="1">
+    <row r="947" spans="1:8">
       <c r="A947" s="8">
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>385</v>
-      </c>
-      <c r="C947" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D947" s="10">
-        <v>0</v>
+        <v>384</v>
+      </c>
+      <c r="C947" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D947" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E947" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F947" s="8">
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2056</v>
-      </c>
+        <v>2050</v>
+      </c>
+      <c r="H947" s="8"/>
     </row>
     <row r="948" spans="1:8" s="8" customFormat="1">
       <c r="A948" s="8">
         <v>947</v>
       </c>
       <c r="B948" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C948" s="10" t="s">
-        <v>2057</v>
+        <v>1117</v>
       </c>
       <c r="D948" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E948" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F948" s="8">
         <v>1</v>
       </c>
       <c r="G948" s="10" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="949" spans="1:8">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" s="8" customFormat="1">
       <c r="A949" s="8">
         <v>948</v>
       </c>
-      <c r="B949" s="9">
-        <v>387</v>
-      </c>
-      <c r="C949" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D949" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="E949" s="9">
-        <v>5</v>
-      </c>
-      <c r="F949" s="9">
-        <v>1</v>
-      </c>
-      <c r="G949" s="9" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="950" spans="1:8" s="8" customFormat="1">
+      <c r="B949" s="8">
+        <v>386</v>
+      </c>
+      <c r="C949" s="10" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D949" s="10">
+        <v>1</v>
+      </c>
+      <c r="E949" s="8">
+        <v>3</v>
+      </c>
+      <c r="F949" s="8">
+        <v>1</v>
+      </c>
+      <c r="G949" s="10" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8">
       <c r="A950" s="8">
         <v>949</v>
       </c>
-      <c r="B950" s="8">
-        <v>388</v>
-      </c>
-      <c r="C950" s="10" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D950" s="10" t="s">
-        <v>2078</v>
-      </c>
-      <c r="E950" s="8">
+      <c r="B950" s="9">
+        <v>387</v>
+      </c>
+      <c r="C950" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D950" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E950" s="9">
         <v>5</v>
       </c>
-      <c r="F950" s="8">
-        <v>1</v>
-      </c>
-      <c r="G950" s="10" t="s">
-        <v>911</v>
+      <c r="F950" s="9">
+        <v>1</v>
+      </c>
+      <c r="G950" s="9" t="s">
+        <v>2063</v>
       </c>
     </row>
     <row r="951" spans="1:8" s="8" customFormat="1">
@@ -51089,19 +51099,19 @@
         <v>388</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E951" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F951" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G951" s="10" t="s">
-        <v>1176</v>
+        <v>911</v>
       </c>
     </row>
     <row r="952" spans="1:8" s="8" customFormat="1">
@@ -51109,19 +51119,19 @@
         <v>951</v>
       </c>
       <c r="B952" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>1052</v>
+        <v>2068</v>
       </c>
       <c r="D952" s="10" t="s">
-        <v>1212</v>
+        <v>2077</v>
       </c>
       <c r="E952" s="8">
         <v>2</v>
       </c>
       <c r="F952" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G952" s="10" t="s">
         <v>1176</v>
@@ -51135,19 +51145,19 @@
         <v>389</v>
       </c>
       <c r="C953" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D953" s="8">
-        <v>3</v>
+        <v>1052</v>
+      </c>
+      <c r="D953" s="10" t="s">
+        <v>1212</v>
       </c>
       <c r="E953" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F953" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2076</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
@@ -51155,22 +51165,22 @@
         <v>953</v>
       </c>
       <c r="B954" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C954" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D954" s="8">
+        <v>3</v>
+      </c>
+      <c r="E954" s="8">
         <v>4</v>
       </c>
-      <c r="E954" s="8">
-        <v>3</v>
-      </c>
       <c r="F954" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -51184,16 +51194,16 @@
         <v>1117</v>
       </c>
       <c r="D955" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E955" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F955" s="8">
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2050</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -51203,20 +51213,20 @@
       <c r="B956" s="8">
         <v>390</v>
       </c>
-      <c r="C956" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D956" s="8" t="s">
-        <v>853</v>
+      <c r="C956" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D956" s="8">
+        <v>7</v>
       </c>
       <c r="E956" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -51224,22 +51234,22 @@
         <v>956</v>
       </c>
       <c r="B957" s="8">
-        <v>391</v>
-      </c>
-      <c r="C957" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D957" s="8">
-        <v>8</v>
+        <v>390</v>
+      </c>
+      <c r="C957" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D957" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E957" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F957" s="8">
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -51250,19 +51260,19 @@
         <v>391</v>
       </c>
       <c r="C958" s="10" t="s">
-        <v>2119</v>
+        <v>1117</v>
       </c>
       <c r="D958" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E958" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F958" s="8">
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="8" customFormat="1">
@@ -51272,20 +51282,20 @@
       <c r="B959" s="8">
         <v>391</v>
       </c>
-      <c r="C959" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D959" s="8" t="s">
-        <v>853</v>
+      <c r="C959" s="10" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D959" s="8">
+        <v>12</v>
       </c>
       <c r="E959" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F959" s="8">
         <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
@@ -51293,7 +51303,7 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C960" s="8" t="s">
         <v>852</v>
@@ -51307,8 +51317,8 @@
       <c r="F960" s="8">
         <v>1</v>
       </c>
-      <c r="G960" s="8" t="s">
-        <v>2051</v>
+      <c r="G960" s="10" t="s">
+        <v>2050</v>
       </c>
     </row>
     <row r="961" spans="1:9" s="8" customFormat="1">
@@ -51316,13 +51326,13 @@
         <v>960</v>
       </c>
       <c r="B961" s="8">
-        <v>393</v>
-      </c>
-      <c r="C961" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D961" s="10" t="s">
-        <v>1958</v>
+        <v>392</v>
+      </c>
+      <c r="C961" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D961" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E961" s="8">
         <v>5</v>
@@ -51330,8 +51340,8 @@
       <c r="F961" s="8">
         <v>1</v>
       </c>
-      <c r="G961" s="10" t="s">
-        <v>2089</v>
+      <c r="G961" s="8" t="s">
+        <v>2050</v>
       </c>
     </row>
     <row r="962" spans="1:9" s="8" customFormat="1">
@@ -51339,7 +51349,7 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C962" s="10" t="s">
         <v>1143</v>
@@ -51348,13 +51358,13 @@
         <v>1958</v>
       </c>
       <c r="E962" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F962" s="8">
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="963" spans="1:9" s="8" customFormat="1">
@@ -51362,10 +51372,10 @@
         <v>962</v>
       </c>
       <c r="B963" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C963" s="10" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D963" s="10" t="s">
         <v>1958</v>
@@ -51377,7 +51387,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="964" spans="1:9" s="8" customFormat="1">
@@ -51385,13 +51395,13 @@
         <v>963</v>
       </c>
       <c r="B964" s="8">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C964" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D964" s="64" t="s">
-        <v>1818</v>
+      <c r="D964" s="10" t="s">
+        <v>1958</v>
       </c>
       <c r="E964" s="8">
         <v>2</v>
@@ -51399,8 +51409,8 @@
       <c r="F964" s="8">
         <v>1</v>
       </c>
-      <c r="G964" s="8" t="s">
-        <v>2104</v>
+      <c r="G964" s="10" t="s">
+        <v>2089</v>
       </c>
     </row>
     <row r="965" spans="1:9" s="8" customFormat="1">
@@ -51414,16 +51424,16 @@
         <v>1142</v>
       </c>
       <c r="D965" s="64" t="s">
-        <v>1915</v>
+        <v>1818</v>
       </c>
       <c r="E965" s="8">
         <v>2</v>
       </c>
       <c r="F965" s="8">
-        <v>2</v>
-      </c>
-      <c r="G965" s="10" t="s">
-        <v>2105</v>
+        <v>1</v>
+      </c>
+      <c r="G965" s="8" t="s">
+        <v>2103</v>
       </c>
     </row>
     <row r="966" spans="1:9" s="8" customFormat="1">
@@ -51431,22 +51441,22 @@
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C966" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D966" s="64" t="s">
-        <v>1958</v>
+        <v>1915</v>
       </c>
       <c r="E966" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F966" s="8">
         <v>2</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2116</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="967" spans="1:9" s="8" customFormat="1">
@@ -51456,20 +51466,20 @@
       <c r="B967" s="8">
         <v>397</v>
       </c>
-      <c r="C967" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D967" s="8" t="s">
-        <v>853</v>
+      <c r="C967" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D967" s="64" t="s">
+        <v>1958</v>
       </c>
       <c r="E967" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F967" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>1842</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="968" spans="1:9" s="8" customFormat="1">
@@ -51477,22 +51487,22 @@
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>398</v>
-      </c>
-      <c r="C968" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D968" s="64" t="s">
-        <v>1958</v>
+        <v>397</v>
+      </c>
+      <c r="C968" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D968" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E968" s="8">
         <v>2</v>
       </c>
       <c r="F968" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>2117</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="969" spans="1:9" s="8" customFormat="1">
@@ -51502,46 +51512,44 @@
       <c r="B969" s="8">
         <v>398</v>
       </c>
-      <c r="C969" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D969" s="8" t="s">
-        <v>853</v>
+      <c r="C969" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D969" s="64" t="s">
+        <v>1958</v>
       </c>
       <c r="E969" s="8">
         <v>2</v>
       </c>
       <c r="F969" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="970" spans="1:9">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" s="8" customFormat="1">
       <c r="A970" s="8">
         <v>969</v>
       </c>
-      <c r="B970" s="20">
-        <v>399</v>
-      </c>
-      <c r="C970" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D970" s="21" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E970" s="20">
-        <v>5</v>
-      </c>
-      <c r="F970" s="20">
-        <v>1</v>
-      </c>
-      <c r="G970" s="21" t="s">
-        <v>1881</v>
-      </c>
-      <c r="H970" s="8"/>
-      <c r="I970" s="8"/>
+      <c r="B970" s="8">
+        <v>398</v>
+      </c>
+      <c r="C970" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D970" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E970" s="8">
+        <v>2</v>
+      </c>
+      <c r="F970" s="8">
+        <v>1</v>
+      </c>
+      <c r="G970" s="10" t="s">
+        <v>1842</v>
+      </c>
     </row>
     <row r="971" spans="1:9">
       <c r="A971" s="8">
@@ -51551,19 +51559,19 @@
         <v>399</v>
       </c>
       <c r="C971" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D971" s="21">
+        <v>1142</v>
+      </c>
+      <c r="D971" s="21" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E971" s="20">
         <v>5</v>
       </c>
-      <c r="E971" s="20">
-        <v>3</v>
-      </c>
       <c r="F971" s="20">
         <v>1</v>
       </c>
       <c r="G971" s="21" t="s">
-        <v>2120</v>
+        <v>1881</v>
       </c>
       <c r="H971" s="8"/>
       <c r="I971" s="8"/>
@@ -51573,29 +51581,25 @@
         <v>971</v>
       </c>
       <c r="B972" s="20">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C972" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D972" s="21" t="s">
-        <v>1903</v>
+        <v>1129</v>
+      </c>
+      <c r="D972" s="21">
+        <v>5</v>
       </c>
       <c r="E972" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F972" s="20">
         <v>1</v>
       </c>
       <c r="G972" s="21" t="s">
-        <v>1892</v>
-      </c>
-      <c r="H972" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I972" s="8" t="s">
-        <v>864</v>
-      </c>
+        <v>2119</v>
+      </c>
+      <c r="H972" s="8"/>
+      <c r="I972" s="8"/>
     </row>
     <row r="973" spans="1:9">
       <c r="A973" s="8">
@@ -51605,19 +51609,19 @@
         <v>400</v>
       </c>
       <c r="C973" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D973" s="21">
-        <v>5</v>
+        <v>1142</v>
+      </c>
+      <c r="D973" s="21" t="s">
+        <v>1903</v>
       </c>
       <c r="E973" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F973" s="20">
         <v>1</v>
       </c>
       <c r="G973" s="21" t="s">
-        <v>2120</v>
+        <v>1892</v>
       </c>
       <c r="H973" s="8" t="s">
         <v>863</v>
@@ -51626,27 +51630,33 @@
         <v>864</v>
       </c>
     </row>
-    <row r="974" spans="1:9" s="8" customFormat="1">
+    <row r="974" spans="1:9">
       <c r="A974" s="8">
         <v>973</v>
       </c>
       <c r="B974" s="20">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C974" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D974" s="20">
+        <v>1129</v>
+      </c>
+      <c r="D974" s="21">
+        <v>5</v>
+      </c>
+      <c r="E974" s="20">
         <v>3</v>
       </c>
-      <c r="E974" s="20">
-        <v>4</v>
-      </c>
       <c r="F974" s="20">
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2076</v>
+        <v>2119</v>
+      </c>
+      <c r="H974" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I974" s="8" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1">
@@ -51654,45 +51664,45 @@
         <v>974</v>
       </c>
       <c r="B975" s="20">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C975" s="21" t="s">
         <v>1117</v>
       </c>
       <c r="D975" s="20">
+        <v>3</v>
+      </c>
+      <c r="E975" s="20">
         <v>4</v>
       </c>
-      <c r="E975" s="20">
-        <v>3</v>
-      </c>
       <c r="F975" s="20">
         <v>1</v>
       </c>
       <c r="G975" s="21" t="s">
-        <v>2128</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="976" spans="1:9" s="8" customFormat="1">
       <c r="A976" s="8">
         <v>975</v>
       </c>
-      <c r="B976" s="8">
-        <v>403</v>
-      </c>
-      <c r="C976" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D976" s="95" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E976" s="8">
-        <v>2</v>
-      </c>
-      <c r="F976" s="8">
-        <v>1</v>
-      </c>
-      <c r="G976" s="8" t="s">
-        <v>2139</v>
+      <c r="B976" s="20">
+        <v>402</v>
+      </c>
+      <c r="C976" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D976" s="20">
+        <v>4</v>
+      </c>
+      <c r="E976" s="20">
+        <v>3</v>
+      </c>
+      <c r="F976" s="20">
+        <v>1</v>
+      </c>
+      <c r="G976" s="21" t="s">
+        <v>2127</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -51703,10 +51713,10 @@
         <v>403</v>
       </c>
       <c r="C977" s="95" t="s">
-        <v>1142</v>
+        <v>1032</v>
       </c>
       <c r="D977" s="95" t="s">
-        <v>1600</v>
+        <v>1818</v>
       </c>
       <c r="E977" s="8">
         <v>2</v>
@@ -51714,8 +51724,8 @@
       <c r="F977" s="8">
         <v>1</v>
       </c>
-      <c r="G977" s="10" t="s">
-        <v>2140</v>
+      <c r="G977" s="8" t="s">
+        <v>2138</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -51723,13 +51733,13 @@
         <v>977</v>
       </c>
       <c r="B978" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C978" s="95" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="D978" s="95" t="s">
-        <v>1818</v>
+        <v>1600</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
@@ -51737,7 +51747,7 @@
       <c r="F978" s="8">
         <v>1</v>
       </c>
-      <c r="G978" s="8" t="s">
+      <c r="G978" s="10" t="s">
         <v>2139</v>
       </c>
     </row>
@@ -51749,10 +51759,10 @@
         <v>404</v>
       </c>
       <c r="C979" s="95" t="s">
-        <v>1142</v>
+        <v>1032</v>
       </c>
       <c r="D979" s="95" t="s">
-        <v>2141</v>
+        <v>1818</v>
       </c>
       <c r="E979" s="8">
         <v>2</v>
@@ -51760,31 +51770,54 @@
       <c r="F979" s="8">
         <v>1</v>
       </c>
-      <c r="G979" s="10" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="980" spans="1:7">
+      <c r="G979" s="8" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" s="8" customFormat="1">
       <c r="A980" s="8">
         <v>979</v>
       </c>
-      <c r="B980" s="9">
+      <c r="B980" s="8">
+        <v>404</v>
+      </c>
+      <c r="C980" s="95" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D980" s="95" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E980" s="8">
+        <v>2</v>
+      </c>
+      <c r="F980" s="8">
+        <v>1</v>
+      </c>
+      <c r="G980" s="10" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7">
+      <c r="A981" s="8">
+        <v>980</v>
+      </c>
+      <c r="B981" s="9">
         <v>405</v>
       </c>
-      <c r="C980" s="10" t="s">
+      <c r="C981" s="10" t="s">
         <v>1533</v>
       </c>
-      <c r="D980" s="8">
+      <c r="D981" s="8">
         <v>1615248000</v>
       </c>
-      <c r="E980" s="9">
+      <c r="E981" s="9">
         <v>3</v>
       </c>
-      <c r="F980" s="9">
-        <v>1</v>
-      </c>
-      <c r="G980" s="49" t="s">
-        <v>2147</v>
+      <c r="F981" s="9">
+        <v>1</v>
+      </c>
+      <c r="G981" s="49" t="s">
+        <v>2146</v>
       </c>
     </row>
   </sheetData>
@@ -51799,8 +51832,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -52072,13 +52105,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -52087,7 +52120,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -52095,13 +52128,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -52110,7 +52143,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -52118,13 +52151,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>2155</v>
+        <v>2164</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -52133,7 +52166,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -52141,13 +52174,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -52156,7 +52189,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/permission_server_config.xlsx
+++ b/config_aomi/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5010" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2218">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7216,10 +7216,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"normal",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼官方渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8066,10 +8062,6 @@
   </si>
   <si>
     <t>cpl_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8409,10 +8401,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>非冲金鸡的全渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8613,10 +8601,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cjj关闭累计赢金榜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>day_delay</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9243,10 +9227,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"vivo","xiaomi","yyb_hlttby",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>vip_week_task_2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9357,6 +9337,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>not_cpl_jjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>jjj_cjj_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9812,10 +9796,6 @@
     <t>2021年3月15日23:59:59结束</t>
   </si>
   <si>
-    <t>2021年3月15日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>小于等于V3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9848,14 +9828,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_kh315_008_lhphb_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xxlzb_005_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>非cjj且大于V5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9896,10 +9868,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>day_delay</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>时间为3.9号8点以后登录的新玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9912,6 +9880,52 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>2021年3月22日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v3_normal</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_normal</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v3_cjj</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_cjj</t>
+  </si>
+  <si>
+    <t>限时福利v3及以下--捕鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时福利v4及以上--捕鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时福利v3及以下--冲金鸡</t>
+  </si>
+  <si>
+    <t>限时福利v4及以上--冲金鸡</t>
+  </si>
+  <si>
+    <t>大于等于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_cnhk_009_thphb_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_006_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>now</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9924,59 +9938,214 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>奥秘官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>byam_cps</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>奥秘CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘ALL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal","byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>"xiaomi_byam","yyb_byam",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>"vivo","xiaomi","yyb_hlttby","xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_103</t>
+  </si>
+  <si>
+    <t>fishing3d_103_1</t>
+  </si>
+  <si>
+    <t>fishing3d_103_2</t>
+  </si>
+  <si>
+    <t>fishing3d_103_3</t>
+  </si>
+  <si>
+    <t>fishing3d_103_4</t>
+  </si>
+  <si>
+    <t>fishing3d_103_5</t>
+  </si>
+  <si>
+    <t>fishing3d_103_6</t>
+  </si>
+  <si>
+    <t>fishing3d_103_7</t>
+  </si>
+  <si>
+    <t>fishing3d_103_8</t>
+  </si>
+  <si>
+    <t>fishing3d_103_9</t>
+  </si>
+  <si>
+    <t>fishing3d_103_10</t>
+  </si>
+  <si>
+    <t>fishing3d_104</t>
+  </si>
+  <si>
+    <t>fishing3d_104_1</t>
+  </si>
+  <si>
+    <t>fishing3d_104_2</t>
+  </si>
+  <si>
+    <t>fishing3d_104_3</t>
+  </si>
+  <si>
+    <t>fishing3d_104_4</t>
+  </si>
+  <si>
+    <t>fishing3d_104_5</t>
+  </si>
+  <si>
+    <t>fishing3d_104_6</t>
+  </si>
+  <si>
+    <t>fishing3d_104_7</t>
+  </si>
+  <si>
+    <t>fishing3d_104_8</t>
+  </si>
+  <si>
+    <t>fishing3d_104_9</t>
+  </si>
+  <si>
+    <t>fishing3d_104_10</t>
+  </si>
+  <si>
+    <t>fishing3d_105</t>
+  </si>
+  <si>
+    <t>fishing3d_105_1</t>
+  </si>
+  <si>
+    <t>fishing3d_105_2</t>
+  </si>
+  <si>
+    <t>fishing3d_105_3</t>
+  </si>
+  <si>
+    <t>fishing3d_105_4</t>
+  </si>
+  <si>
+    <t>fishing3d_105_5</t>
+  </si>
+  <si>
+    <t>fishing3d_105_6</t>
+  </si>
+  <si>
+    <t>fishing3d_105_7</t>
+  </si>
+  <si>
+    <t>fishing3d_105_8</t>
+  </si>
+  <si>
+    <t>fishing3d_105_9</t>
+  </si>
+  <si>
+    <t>fishing3d_105_10</t>
+  </si>
+  <si>
+    <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不展示给捕鱼奥秘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘CPS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘ALL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>not_cpl_jjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是捕鱼奥秘</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10819,11 +10988,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q471"/>
+  <dimension ref="A1:Q519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A383" sqref="A383"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B500" sqref="B500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11842,7 +12011,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11857,7 +12026,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11872,7 +12041,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11887,7 +12056,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11901,7 +12070,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -11915,7 +12084,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -11930,7 +12099,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -11945,7 +12114,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -11959,7 +12128,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -11977,7 +12146,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -12010,7 +12179,7 @@
         <v>123</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -12028,7 +12197,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -12046,7 +12215,7 @@
         <v>125</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -12064,7 +12233,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="C73" s="53">
         <v>22</v>
@@ -12084,7 +12253,7 @@
         <v>127</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C74" s="53">
         <v>22</v>
@@ -12098,7 +12267,7 @@
         <v>128</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C75" s="53">
         <v>22</v>
@@ -12113,7 +12282,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C76" s="53">
         <v>23</v>
@@ -12128,7 +12297,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C77" s="53">
         <v>23</v>
@@ -12143,7 +12312,7 @@
         <v>131</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C78" s="9">
         <v>24</v>
@@ -12158,7 +12327,7 @@
         <v>132</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C79" s="9">
         <v>25</v>
@@ -12173,7 +12342,7 @@
         <v>133</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C80" s="9">
         <v>26</v>
@@ -12188,7 +12357,7 @@
         <v>134</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -12203,7 +12372,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -13185,7 +13354,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="31" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>283</v>
@@ -13389,7 +13558,7 @@
     </row>
     <row r="200" spans="1:10" s="61" customFormat="1">
       <c r="A200" s="60" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>320</v>
@@ -14727,7 +14896,7 @@
         <v>1363</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="C349" s="3">
         <v>226</v>
@@ -14790,10 +14959,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="27" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="C355" s="3">
         <v>8</v>
@@ -14801,10 +14970,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="27" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -14823,10 +14992,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="27" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B360" s="31" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C360" s="3">
         <v>332</v>
@@ -14837,7 +15006,7 @@
         <v>1445</v>
       </c>
       <c r="B361" s="31" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="C361" s="3">
         <v>242</v>
@@ -14859,7 +15028,7 @@
         <v>1441</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C363" s="3">
         <v>244</v>
@@ -14870,7 +15039,7 @@
         <v>1479</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C366" s="3">
         <v>248</v>
@@ -14878,7 +15047,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="27" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B368" s="27" t="s">
         <v>1503</v>
@@ -14925,7 +15094,7 @@
         <v>1592</v>
       </c>
       <c r="B375" s="27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C375" s="3">
         <v>287</v>
@@ -14933,10 +15102,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="27" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B377" s="27" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C377" s="3">
         <v>292</v>
@@ -14944,10 +15113,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="27" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B379" s="27" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C379" s="3">
         <v>319</v>
@@ -14955,10 +15124,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="27" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B381" s="27" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C381" s="3">
         <v>326</v>
@@ -14966,10 +15135,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>1735</v>
+        <v>2163</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C383" s="3">
         <v>327</v>
@@ -14977,10 +15146,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="27" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C385" s="3">
         <v>328</v>
@@ -14988,10 +15157,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="27" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C387" s="3">
         <v>319</v>
@@ -14999,10 +15168,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="31" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B389" s="31" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C389" s="8">
         <v>127</v>
@@ -15010,10 +15179,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="31" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B390" s="31" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C390" s="8">
         <v>128</v>
@@ -15021,10 +15190,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="31" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B391" s="31" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C391" s="8">
         <v>129</v>
@@ -15032,10 +15201,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="31" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B392" s="31" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C392" s="8">
         <v>130</v>
@@ -15043,10 +15212,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="31" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B393" s="31" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C393" s="8">
         <v>131</v>
@@ -15054,10 +15223,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="31" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B394" s="31" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C394" s="8">
         <v>132</v>
@@ -15065,10 +15234,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="31" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B395" s="31" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C395" s="8">
         <v>133</v>
@@ -15076,10 +15245,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="31" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B396" s="31" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C396" s="8">
         <v>134</v>
@@ -15087,10 +15256,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="31" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B397" s="31" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C397" s="8">
         <v>135</v>
@@ -15098,10 +15267,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="27" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B399" s="27" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C399" s="3">
         <v>333</v>
@@ -15109,10 +15278,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="27" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B400" s="27" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C400" s="3">
         <v>333</v>
@@ -15120,10 +15289,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="27" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B401" s="27" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C401" s="3">
         <v>333</v>
@@ -15131,10 +15300,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="27" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B402" s="27" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -15142,10 +15311,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="27" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -15153,10 +15322,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="27" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="C405" s="3">
         <v>91</v>
@@ -15164,10 +15333,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="B407" s="27" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="C407" s="3">
         <v>339</v>
@@ -15175,10 +15344,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="C409" s="3">
         <v>326</v>
@@ -15186,37 +15355,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="31" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C411" s="9"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="18" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="C412" s="9"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="18" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C414" s="53">
         <v>22</v>
@@ -15224,10 +15393,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="C415" s="53">
         <v>22</v>
@@ -15235,10 +15404,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="C416" s="53">
         <v>22</v>
@@ -15246,10 +15415,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="C417" s="53">
         <v>23</v>
@@ -15257,10 +15426,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C418" s="53">
         <v>23</v>
@@ -15268,10 +15437,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="C419" s="9">
         <v>24</v>
@@ -15279,10 +15448,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="C420" s="9">
         <v>25</v>
@@ -15290,10 +15459,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="C421" s="9">
         <v>26</v>
@@ -15301,10 +15470,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="C422" s="9">
         <v>26</v>
@@ -15312,10 +15481,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -15323,10 +15492,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="27" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="B425" s="27" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="C425" s="3">
         <v>342</v>
@@ -15334,10 +15503,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -15345,10 +15514,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="B428" s="27" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15356,10 +15525,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15367,10 +15536,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15378,10 +15547,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="B433" s="27" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15389,10 +15558,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15400,10 +15569,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15411,10 +15580,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="B438" s="27" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15422,10 +15591,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2163</v>
+        <v>2007</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15433,10 +15602,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="B442" s="27" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15448,10 +15617,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B444" s="27" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
@@ -15459,10 +15628,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="72" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="B446" s="27" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
@@ -15470,10 +15639,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="72" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="B447" s="27" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15481,10 +15650,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15492,10 +15661,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B451" s="27" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15503,10 +15672,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B453" s="27" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15514,10 +15683,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15525,10 +15694,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15536,10 +15705,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15547,10 +15716,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B458" s="27" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15558,10 +15727,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15569,10 +15738,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="B462" s="27" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15580,10 +15749,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="B463" s="27" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15591,18 +15760,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15610,10 +15779,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B467" s="27" t="s">
         <v>2092</v>
-      </c>
-      <c r="B467" s="27" t="s">
-        <v>2096</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15621,10 +15790,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B468" s="27" t="s">
         <v>2093</v>
-      </c>
-      <c r="B468" s="27" t="s">
-        <v>2097</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15632,10 +15801,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B469" s="27" t="s">
         <v>2094</v>
-      </c>
-      <c r="B469" s="27" t="s">
-        <v>2098</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15643,13 +15812,446 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="27" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B473" s="27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C473" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="27" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B474" s="27" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C474" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="27" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B475" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C475" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="27" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B476" s="27" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C476" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="27" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B477" s="27" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C477" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="27" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B478" s="27" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C478" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="27" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B479" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C479" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="27" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B480" s="27" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C480" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="27" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B481" s="27" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C481" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="27" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B482" s="27" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C482" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="27" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B483" s="27" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C483" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="27"/>
+      <c r="B484" s="27"/>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="27" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B485" s="27" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C485" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="27" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B486" s="27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C486" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="27" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B487" s="27" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C487" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="27" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B488" s="27" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C488" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="27" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B489" s="27" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C489" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="27" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B490" s="27" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C490" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="27" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B491" s="27" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C491" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="27" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B492" s="27" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C492" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="27" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B493" s="27" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C493" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="27" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B494" s="27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C494" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="27" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B495" s="27" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C495" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="B496" s="27"/>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="27" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B497" s="27" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C497" s="50">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="27" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B498" s="27" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C498" s="50"/>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="27" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B499" s="27" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="27" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B500" s="27" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="27" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B501" s="27" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="27" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B502" s="27" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="27" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B503" s="27" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="27" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B504" s="27" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="27" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B505" s="27" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="27" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B506" s="27" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="27" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B507" s="27" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="27" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B509" s="27" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C509" s="50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="27" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B510" s="27" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C510" s="50"/>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="27" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B511" s="27" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="27" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B512" s="27" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="27" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B513" s="27" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="27" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B514" s="27" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="27" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B515" s="27" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="27" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B516" s="27" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="27" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B517" s="27" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="27" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B518" s="27" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="27" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B519" s="27" t="s">
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
@@ -15662,13 +16264,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O374"/>
+  <dimension ref="A1:O378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J367" sqref="J367"/>
+      <selection pane="bottomRight" activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15710,7 +16312,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -15850,7 +16452,7 @@
         <v>1485</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -16010,7 +16612,7 @@
         <v>456</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>1152</v>
@@ -21722,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>761</v>
@@ -22269,7 +22871,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D192" s="40" t="s">
         <v>790</v>
@@ -25124,7 +25726,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D278" s="16" t="s">
         <v>1571</v>
@@ -25161,7 +25763,7 @@
         <v>1586</v>
       </c>
       <c r="D279" s="82" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E279" s="81"/>
       <c r="F279" s="81"/>
@@ -25328,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -25345,13 +25947,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1">
@@ -25362,10 +25964,10 @@
         <v>0</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -25385,7 +25987,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1">
@@ -25396,10 +25998,10 @@
         <v>0</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -25419,7 +26021,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1">
@@ -25430,10 +26032,10 @@
         <v>0</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -25453,7 +26055,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1">
@@ -25464,10 +26066,10 @@
         <v>0</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -25487,7 +26089,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="73" customFormat="1">
@@ -25498,10 +26100,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="102" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D289" s="102" t="s">
         <v>1630</v>
-      </c>
-      <c r="D289" s="102" t="s">
-        <v>1631</v>
       </c>
       <c r="E289" s="71"/>
       <c r="F289" s="71"/>
@@ -25515,13 +26117,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K289" s="71">
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25532,10 +26134,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="102" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D290" s="102" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E290" s="71"/>
       <c r="F290" s="71"/>
@@ -25549,13 +26151,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K290" s="71">
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25566,10 +26168,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="101" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D291" s="102" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -25583,13 +26185,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K291" s="71">
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25600,10 +26202,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="101" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D292" s="101" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E292" s="71"/>
       <c r="F292" s="71"/>
@@ -25617,13 +26219,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K292" s="71">
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25634,10 +26236,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -25666,7 +26268,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D294" s="16" t="s">
         <v>1573</v>
@@ -25698,7 +26300,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>1574</v>
@@ -25730,7 +26332,7 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D296" s="16" t="s">
         <v>1575</v>
@@ -25762,7 +26364,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D297" s="16" t="s">
         <v>1576</v>
@@ -25794,10 +26396,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -25826,10 +26428,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -25858,10 +26460,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -25890,10 +26492,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -25922,10 +26524,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -25954,10 +26556,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D303" s="16" t="s">
         <v>1659</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>1660</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -25986,10 +26588,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -26018,10 +26620,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -26050,10 +26652,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -26082,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D307" s="16" t="s">
         <v>1574</v>
@@ -26114,7 +26716,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D308" s="16" t="s">
         <v>1575</v>
@@ -26146,7 +26748,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>1576</v>
@@ -26178,10 +26780,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D310" s="30" t="s">
         <v>1673</v>
-      </c>
-      <c r="D310" s="30" t="s">
-        <v>1674</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -26210,10 +26812,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -26242,10 +26844,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>1677</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>1678</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -26274,10 +26876,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -26306,10 +26908,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>1683</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>1684</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -26338,10 +26940,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -26370,10 +26972,10 @@
         <v>0</v>
       </c>
       <c r="C316" s="16" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D316" s="16" t="s">
         <v>1701</v>
-      </c>
-      <c r="D316" s="16" t="s">
-        <v>1702</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -26393,7 +26995,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -26404,10 +27006,10 @@
         <v>0</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -26425,7 +27027,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -26436,10 +27038,10 @@
         <v>0</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -26457,7 +27059,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -26468,10 +27070,10 @@
         <v>0</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -26489,7 +27091,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -26500,10 +27102,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -26532,10 +27134,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="101" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D321" s="101" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="E321" s="102"/>
       <c r="F321" s="102"/>
@@ -26555,7 +27157,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="101" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -26566,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -26587,7 +27189,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -26598,10 +27200,10 @@
         <v>0</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -26619,7 +27221,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -26630,10 +27232,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -26645,7 +27247,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26662,10 +27264,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -26694,10 +27296,10 @@
         <v>0</v>
       </c>
       <c r="C326" s="101" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D326" s="101" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -26715,7 +27317,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -26726,10 +27328,10 @@
         <v>0</v>
       </c>
       <c r="C327" s="101" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="D327" s="101" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -26747,7 +27349,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -26758,10 +27360,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -26790,10 +27392,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -26822,10 +27424,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -26837,7 +27439,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26854,10 +27456,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -26886,10 +27488,10 @@
         <v>0</v>
       </c>
       <c r="C332" s="87" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="D332" s="87" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="E332" s="86"/>
       <c r="F332" s="86"/>
@@ -26909,7 +27511,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="87" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -26920,10 +27522,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -26935,7 +27537,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26952,10 +27554,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1835</v>
+        <v>2216</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26986,10 +27588,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -27020,10 +27622,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -27037,7 +27639,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -27054,10 +27656,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -27086,10 +27688,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -27120,10 +27722,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="72" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -27152,10 +27754,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="72" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -27184,10 +27786,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="72" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -27216,10 +27818,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="72" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -27248,10 +27850,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="72" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -27280,10 +27882,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="72" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -27312,10 +27914,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="72" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -27327,7 +27929,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="16" t="s">
-        <v>1201</v>
+        <v>2154</v>
       </c>
       <c r="K345" s="17">
         <v>1598889600</v>
@@ -27344,10 +27946,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="D346" s="78" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -27359,7 +27961,7 @@
         <v>1</v>
       </c>
       <c r="J346" s="30" t="s">
-        <v>1201</v>
+        <v>1405</v>
       </c>
       <c r="K346" s="26">
         <v>1588028400</v>
@@ -27376,10 +27978,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="D347" s="78" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -27408,10 +28010,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="101" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D348" s="101" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27442,10 +28044,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E349" s="16"/>
       <c r="F349" s="16"/>
@@ -27459,13 +28061,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="16" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="K349" s="16">
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27476,10 +28078,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E350" s="16"/>
       <c r="F350" s="16"/>
@@ -27493,13 +28095,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="16" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="K350" s="16">
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27510,10 +28112,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="66" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="D351" s="66" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="E351" s="66"/>
       <c r="F351" s="66"/>
@@ -27527,13 +28129,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="66" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="K351" s="66">
         <v>1610380800</v>
       </c>
       <c r="L351" s="66" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27544,10 +28146,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="66" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D352" s="66" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E352" s="66"/>
       <c r="F352" s="66"/>
@@ -27561,13 +28163,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="66" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="K352" s="66">
         <v>1610380800</v>
       </c>
       <c r="L352" s="66" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27578,10 +28180,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="106" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -27612,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27635,7 +28237,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27646,10 +28248,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27669,7 +28271,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27680,10 +28282,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27703,7 +28305,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27714,10 +28316,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="106" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27748,10 +28350,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27771,7 +28373,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27782,10 +28384,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="108" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27805,7 +28407,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27816,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="108" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27839,7 +28441,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27850,10 +28452,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27873,7 +28475,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="45" customFormat="1">
@@ -27884,10 +28486,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="E362" s="16"/>
       <c r="F362" s="16"/>
@@ -27918,10 +28520,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -27941,7 +28543,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="16" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -27952,10 +28554,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
@@ -27975,7 +28577,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="16" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -27986,10 +28588,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="31" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -28009,7 +28611,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="16" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -28020,10 +28622,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="66" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -28036,14 +28638,14 @@
       <c r="I366" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="J366" s="65" t="s">
-        <v>2149</v>
+      <c r="J366" s="66" t="s">
+        <v>733</v>
       </c>
       <c r="K366" s="65">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2117</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28054,10 +28656,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="66" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="D367" s="66" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -28070,164 +28672,164 @@
       <c r="I367" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="J367" s="65" t="s">
-        <v>2149</v>
+      <c r="J367" s="66" t="s">
+        <v>733</v>
       </c>
       <c r="K367" s="65">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" s="22" customFormat="1">
       <c r="A368" s="16">
         <v>367</v>
       </c>
-      <c r="B368" s="65">
-        <v>1</v>
-      </c>
-      <c r="C368" s="66" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D368" s="66" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E368" s="65"/>
-      <c r="F368" s="65"/>
-      <c r="G368" s="65">
+      <c r="B368" s="17">
+        <v>0</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D368" s="16" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E368" s="17"/>
+      <c r="F368" s="17"/>
+      <c r="G368" s="17">
         <v>401</v>
       </c>
-      <c r="H368" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I368" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J368" s="66" t="s">
+      <c r="H368" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I368" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J368" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K368" s="65">
+      <c r="K368" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L368" s="66" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12">
+      <c r="L368" s="16" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" s="22" customFormat="1">
       <c r="A369" s="16">
         <v>368</v>
       </c>
-      <c r="B369" s="65">
-        <v>1</v>
-      </c>
-      <c r="C369" s="66" t="s">
-        <v>2136</v>
-      </c>
-      <c r="D369" s="66" t="s">
-        <v>2126</v>
-      </c>
-      <c r="E369" s="65"/>
-      <c r="F369" s="65"/>
-      <c r="G369" s="65">
+      <c r="B369" s="17">
+        <v>0</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D369" s="16" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E369" s="17"/>
+      <c r="F369" s="17"/>
+      <c r="G369" s="17">
         <v>402</v>
       </c>
-      <c r="H369" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I369" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J369" s="66" t="s">
+      <c r="H369" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I369" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J369" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K369" s="65">
+      <c r="K369" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L369" s="66" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12">
+      <c r="L369" s="16" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" s="22" customFormat="1">
       <c r="A370" s="16">
         <v>369</v>
       </c>
-      <c r="B370" s="65">
-        <v>1</v>
-      </c>
-      <c r="C370" s="66" t="s">
-        <v>2128</v>
+      <c r="B370" s="17">
+        <v>1</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>2123</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E370" s="65"/>
-      <c r="F370" s="65"/>
+        <v>2125</v>
+      </c>
+      <c r="E370" s="17"/>
+      <c r="F370" s="17"/>
       <c r="G370" s="16">
         <v>370</v>
       </c>
-      <c r="H370" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I370" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J370" s="66" t="s">
+      <c r="H370" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I370" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J370" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K370" s="65">
+      <c r="K370" s="17">
         <v>1615248000</v>
       </c>
       <c r="L370" s="16" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" s="22" customFormat="1">
       <c r="A371" s="16">
         <v>370</v>
       </c>
-      <c r="B371" s="65">
-        <v>1</v>
-      </c>
-      <c r="C371" s="66" t="s">
-        <v>2129</v>
+      <c r="B371" s="17">
+        <v>1</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>2124</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2131</v>
-      </c>
-      <c r="E371" s="65"/>
-      <c r="F371" s="65"/>
+        <v>2126</v>
+      </c>
+      <c r="E371" s="17"/>
+      <c r="F371" s="17"/>
       <c r="G371" s="16">
         <v>371</v>
       </c>
-      <c r="H371" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I371" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J371" s="66" t="s">
+      <c r="H371" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I371" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J371" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K371" s="65">
+      <c r="K371" s="17">
         <v>1615248000</v>
       </c>
       <c r="L371" s="16" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="372" spans="1:12" s="22" customFormat="1">
-      <c r="A372" s="16">
+    <row r="372" spans="1:12" s="67" customFormat="1">
+      <c r="A372" s="66">
         <v>371</v>
       </c>
       <c r="B372" s="65">
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2133</v>
+        <v>2152</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28241,27 +28843,27 @@
         <v>1</v>
       </c>
       <c r="J372" s="66" t="s">
-        <v>455</v>
-      </c>
-      <c r="K372" s="65">
-        <v>1615248000</v>
+        <v>1116</v>
+      </c>
+      <c r="K372" s="20">
+        <v>1615824000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" s="22" customFormat="1">
-      <c r="A373" s="16">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" s="67" customFormat="1">
+      <c r="A373" s="66">
         <v>372</v>
       </c>
       <c r="B373" s="65">
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2134</v>
+        <v>2153</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="E373" s="65"/>
       <c r="F373" s="65"/>
@@ -28275,13 +28877,13 @@
         <v>1</v>
       </c>
       <c r="J373" s="66" t="s">
-        <v>2144</v>
-      </c>
-      <c r="K373" s="65">
-        <v>1615248000</v>
+        <v>1116</v>
+      </c>
+      <c r="K373" s="20">
+        <v>1615824000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2117</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -28292,10 +28894,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="26" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="D374" s="26" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="G374" s="26">
         <v>405</v>
@@ -28307,10 +28909,146 @@
         <v>1</v>
       </c>
       <c r="J374" s="26" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375" s="16">
+        <v>374</v>
+      </c>
+      <c r="B375" s="26">
+        <v>1</v>
+      </c>
+      <c r="C375" s="66" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D375" s="66" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E375" s="65"/>
+      <c r="F375" s="65"/>
+      <c r="G375" s="65">
+        <v>406</v>
+      </c>
+      <c r="H375" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I375" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J375" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K375" s="20">
+        <v>1615824000</v>
+      </c>
+      <c r="L375" s="66" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="A376" s="16">
+        <v>375</v>
+      </c>
+      <c r="B376" s="26">
+        <v>1</v>
+      </c>
+      <c r="C376" s="66" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D376" s="66" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E376" s="65"/>
+      <c r="F376" s="65"/>
+      <c r="G376" s="65">
+        <v>407</v>
+      </c>
+      <c r="H376" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I376" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J376" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K376" s="20">
+        <v>1615824000</v>
+      </c>
+      <c r="L376" s="66" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="A377" s="26">
+        <v>376</v>
+      </c>
+      <c r="B377" s="26">
+        <v>1</v>
+      </c>
+      <c r="C377" s="66" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D377" s="66" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E377" s="65"/>
+      <c r="F377" s="65"/>
+      <c r="G377" s="65">
+        <v>408</v>
+      </c>
+      <c r="H377" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I377" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J377" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K377" s="20">
+        <v>1615824000</v>
+      </c>
+      <c r="L377" s="66" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="A378" s="16">
+        <v>377</v>
+      </c>
+      <c r="B378" s="26">
+        <v>1</v>
+      </c>
+      <c r="C378" s="66" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D378" s="66" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E378" s="65"/>
+      <c r="F378" s="65"/>
+      <c r="G378" s="65">
+        <v>409</v>
+      </c>
+      <c r="H378" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I378" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J378" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K378" s="20">
+        <v>1615824000</v>
+      </c>
+      <c r="L378" s="66" t="s">
+        <v>2141</v>
       </c>
     </row>
   </sheetData>
@@ -28324,13 +29062,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I981"/>
+  <dimension ref="A1:I989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C813" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C831" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G826" sqref="G826"/>
+      <selection pane="bottomRight" activeCell="D846" sqref="D846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28914,7 +29652,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1039</v>
@@ -30041,7 +30779,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1037</v>
@@ -30527,7 +31265,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -31750,7 +32488,7 @@
         <v>1032</v>
       </c>
       <c r="D147" s="97" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E147" s="96">
         <v>2</v>
@@ -31825,7 +32563,7 @@
         <v>1032</v>
       </c>
       <c r="D150" s="97" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="E150" s="96">
         <v>2</v>
@@ -31834,7 +32572,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="97" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -32494,7 +33232,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -32517,7 +33255,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="80" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -32526,7 +33264,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="8" customFormat="1">
@@ -32924,7 +33662,7 @@
         <v>1032</v>
       </c>
       <c r="D197" s="91" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E197" s="89">
         <v>2</v>
@@ -32949,7 +33687,7 @@
         <v>1032</v>
       </c>
       <c r="D198" s="91" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E198" s="89">
         <v>2</v>
@@ -32958,7 +33696,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="90" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -37130,7 +37868,7 @@
         <v>1142</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E378" s="8">
         <v>5</v>
@@ -42354,7 +43092,7 @@
         <v>1142</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -42404,7 +43142,7 @@
         <v>1142</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -42429,7 +43167,7 @@
         <v>1142</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -42454,7 +43192,7 @@
         <v>1142</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -42504,7 +43242,7 @@
         <v>1142</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E602" s="14">
         <v>5</v>
@@ -42554,7 +43292,7 @@
         <v>1142</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -42579,7 +43317,7 @@
         <v>1142</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E605" s="14">
         <v>2</v>
@@ -42604,7 +43342,7 @@
         <v>1142</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -42654,7 +43392,7 @@
         <v>1142</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -42704,7 +43442,7 @@
         <v>1142</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -42729,7 +43467,7 @@
         <v>1142</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -42754,7 +43492,7 @@
         <v>1142</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -42804,7 +43542,7 @@
         <v>1142</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -42854,7 +43592,7 @@
         <v>1142</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -42879,7 +43617,7 @@
         <v>1142</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E617" s="14">
         <v>2</v>
@@ -42904,7 +43642,7 @@
         <v>1142</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -42954,7 +43692,7 @@
         <v>1142</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -43004,7 +43742,7 @@
         <v>1142</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -43029,7 +43767,7 @@
         <v>1142</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E623" s="14">
         <v>2</v>
@@ -43054,7 +43792,7 @@
         <v>1142</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -43104,7 +43842,7 @@
         <v>1142</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -43154,7 +43892,7 @@
         <v>1142</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -43179,7 +43917,7 @@
         <v>1142</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E629" s="14">
         <v>2</v>
@@ -43204,7 +43942,7 @@
         <v>1142</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -43761,7 +44499,7 @@
         <v>1032</v>
       </c>
       <c r="D653" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E653" s="8">
         <v>2</v>
@@ -43770,7 +44508,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="49" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H653" s="8"/>
       <c r="I653" s="8"/>
@@ -44261,7 +44999,7 @@
         <v>1142</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="E673" s="8">
         <v>2</v>
@@ -44966,7 +45704,7 @@
         <v>1</v>
       </c>
       <c r="G701" s="10" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H701" s="8"/>
       <c r="I701" s="8"/>
@@ -44979,7 +45717,7 @@
         <v>282</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D702" s="10" t="s">
         <v>1577</v>
@@ -45204,11 +45942,11 @@
         <v>287</v>
       </c>
       <c r="C711" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D711" s="10" t="s">
         <v>1599</v>
       </c>
-      <c r="D711" s="10" t="s">
-        <v>1600</v>
-      </c>
       <c r="E711" s="8">
         <v>2</v>
       </c>
@@ -45216,7 +45954,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="10" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="712" spans="1:9" s="8" customFormat="1">
@@ -45230,7 +45968,7 @@
         <v>1143</v>
       </c>
       <c r="D712" s="10" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E712" s="8">
         <v>5</v>
@@ -45239,7 +45977,7 @@
         <v>2</v>
       </c>
       <c r="G712" s="10" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="713" spans="1:9">
@@ -45275,10 +46013,10 @@
         <v>288</v>
       </c>
       <c r="C714" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D714" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D714" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E714" s="8">
         <v>5</v>
@@ -45287,7 +46025,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H714" s="8"/>
       <c r="I714" s="8"/>
@@ -45325,10 +46063,10 @@
         <v>288</v>
       </c>
       <c r="C716" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D716" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D716" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E716" s="8">
         <v>5</v>
@@ -45337,7 +46075,7 @@
         <v>2</v>
       </c>
       <c r="G716" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H716" s="8"/>
       <c r="I716" s="8"/>
@@ -45362,7 +46100,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="10" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H717" s="8"/>
       <c r="I717" s="8"/>
@@ -45400,7 +46138,7 @@
         <v>289</v>
       </c>
       <c r="C719" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D719" s="10" t="s">
         <v>1577</v>
@@ -45412,7 +46150,7 @@
         <v>1</v>
       </c>
       <c r="G719" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H719" s="8"/>
       <c r="I719" s="8"/>
@@ -45425,10 +46163,10 @@
         <v>289</v>
       </c>
       <c r="C720" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D720" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D720" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E720" s="8">
         <v>5</v>
@@ -45437,7 +46175,7 @@
         <v>1</v>
       </c>
       <c r="G720" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H720" s="8"/>
       <c r="I720" s="8"/>
@@ -45450,7 +46188,7 @@
         <v>290</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D721" s="10" t="s">
         <v>1577</v>
@@ -45462,7 +46200,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H721" s="8"/>
       <c r="I721" s="8"/>
@@ -45487,7 +46225,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="8" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H722" s="8"/>
       <c r="I722" s="8"/>
@@ -45512,7 +46250,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="8" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H723" s="8"/>
       <c r="I723" s="8"/>
@@ -45525,10 +46263,10 @@
         <v>290</v>
       </c>
       <c r="C724" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D724" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D724" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E724" s="8">
         <v>5</v>
@@ -45537,7 +46275,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H724" s="8"/>
       <c r="I724" s="8"/>
@@ -45600,7 +46338,7 @@
         <v>291</v>
       </c>
       <c r="C727" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D727" s="10" t="s">
         <v>1577</v>
@@ -45612,7 +46350,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H727" s="8"/>
       <c r="I727" s="8"/>
@@ -45625,10 +46363,10 @@
         <v>291</v>
       </c>
       <c r="C728" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D728" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D728" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E728" s="8">
         <v>5</v>
@@ -45637,7 +46375,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H728" s="8"/>
       <c r="I728" s="8"/>
@@ -45653,7 +46391,7 @@
         <v>1142</v>
       </c>
       <c r="D729" s="10" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E729" s="8">
         <v>2</v>
@@ -45662,7 +46400,7 @@
         <v>1</v>
       </c>
       <c r="G729" s="10" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="730" spans="1:9">
@@ -45685,7 +46423,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="10" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H730" s="8"/>
       <c r="I730" s="8"/>
@@ -45735,7 +46473,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H732" s="8"/>
       <c r="I732" s="8"/>
@@ -45748,10 +46486,10 @@
         <v>293</v>
       </c>
       <c r="C733" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D733" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D733" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E733" s="8">
         <v>5</v>
@@ -45760,7 +46498,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H733" s="8"/>
       <c r="I733" s="8"/>
@@ -45810,7 +46548,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -45835,7 +46573,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H736" s="8"/>
       <c r="I736" s="8"/>
@@ -45860,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H737" s="8"/>
       <c r="I737" s="8"/>
@@ -45885,7 +46623,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="19" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H738" s="8"/>
       <c r="I738" s="8"/>
@@ -45910,7 +46648,7 @@
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H739" s="8"/>
       <c r="I739" s="8"/>
@@ -45935,7 +46673,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H740" s="8"/>
       <c r="I740" s="8"/>
@@ -45960,7 +46698,7 @@
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H741" s="8"/>
       <c r="I741" s="8"/>
@@ -45985,7 +46723,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H742" s="8"/>
       <c r="I742" s="8"/>
@@ -46010,7 +46748,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -46160,7 +46898,7 @@
         <v>1</v>
       </c>
       <c r="G749" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H749" s="8"/>
       <c r="I749" s="8"/>
@@ -46235,7 +46973,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
@@ -46310,7 +47048,7 @@
         <v>1</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H755" s="8"/>
       <c r="I755" s="8"/>
@@ -46326,7 +47064,7 @@
         <v>1052</v>
       </c>
       <c r="D756" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E756" s="8">
         <v>2</v>
@@ -46460,7 +47198,7 @@
         <v>1</v>
       </c>
       <c r="G761" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H761" s="8"/>
       <c r="I761" s="8"/>
@@ -46501,7 +47239,7 @@
         <v>1032</v>
       </c>
       <c r="D763" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E763" s="8">
         <v>2</v>
@@ -46510,7 +47248,7 @@
         <v>1</v>
       </c>
       <c r="G763" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H763" s="8"/>
       <c r="I763" s="8"/>
@@ -46551,7 +47289,7 @@
         <v>1032</v>
       </c>
       <c r="D765" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E765" s="8">
         <v>2</v>
@@ -46560,7 +47298,7 @@
         <v>2</v>
       </c>
       <c r="G765" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H765" s="8"/>
       <c r="I765" s="8"/>
@@ -46601,7 +47339,7 @@
         <v>1032</v>
       </c>
       <c r="D767" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E767" s="8">
         <v>2</v>
@@ -46610,7 +47348,7 @@
         <v>3</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H767" s="8"/>
       <c r="I767" s="8"/>
@@ -46676,7 +47414,7 @@
         <v>1032</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -46685,7 +47423,7 @@
         <v>1</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H770" s="8"/>
       <c r="I770" s="8"/>
@@ -46710,7 +47448,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H771" s="8"/>
       <c r="I771" s="8"/>
@@ -46776,7 +47514,7 @@
         <v>1032</v>
       </c>
       <c r="D774" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E774" s="8">
         <v>2</v>
@@ -46785,7 +47523,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H774" s="8"/>
       <c r="I774" s="8"/>
@@ -46810,7 +47548,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H775" s="8"/>
       <c r="I775" s="8"/>
@@ -46885,7 +47623,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H778" s="8"/>
       <c r="I778" s="8"/>
@@ -46901,7 +47639,7 @@
         <v>1032</v>
       </c>
       <c r="D779" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E779" s="8">
         <v>2</v>
@@ -46910,7 +47648,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H779" s="8"/>
       <c r="I779" s="8"/>
@@ -46926,7 +47664,7 @@
         <v>1032</v>
       </c>
       <c r="D780" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E780" s="8">
         <v>2</v>
@@ -46935,7 +47673,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H780" s="8"/>
       <c r="I780" s="8"/>
@@ -46951,7 +47689,7 @@
         <v>1032</v>
       </c>
       <c r="D781" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E781" s="8">
         <v>5</v>
@@ -46960,7 +47698,7 @@
         <v>1</v>
       </c>
       <c r="G781" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H781" s="8"/>
       <c r="I781" s="8"/>
@@ -46976,7 +47714,7 @@
         <v>1052</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E782" s="8">
         <v>2</v>
@@ -47001,7 +47739,7 @@
         <v>1032</v>
       </c>
       <c r="D783" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E783" s="8">
         <v>5</v>
@@ -47010,7 +47748,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H783" s="8"/>
       <c r="I783" s="8"/>
@@ -47051,7 +47789,7 @@
         <v>1032</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E785" s="8">
         <v>5</v>
@@ -47060,7 +47798,7 @@
         <v>2</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H785" s="8"/>
       <c r="I785" s="8"/>
@@ -47101,7 +47839,7 @@
         <v>1032</v>
       </c>
       <c r="D787" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E787" s="8">
         <v>5</v>
@@ -47110,7 +47848,7 @@
         <v>3</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H787" s="8"/>
       <c r="I787" s="8"/>
@@ -47176,7 +47914,7 @@
         <v>1032</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -47185,7 +47923,7 @@
         <v>1</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H790" s="8"/>
       <c r="I790" s="8"/>
@@ -47210,7 +47948,7 @@
         <v>1</v>
       </c>
       <c r="G791" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H791" s="8"/>
       <c r="I791" s="8"/>
@@ -47276,7 +48014,7 @@
         <v>1032</v>
       </c>
       <c r="D794" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E794" s="8">
         <v>5</v>
@@ -47285,7 +48023,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H794" s="8"/>
       <c r="I794" s="8"/>
@@ -47310,7 +48048,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H795" s="8"/>
       <c r="I795" s="8"/>
@@ -47385,7 +48123,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H798" s="8"/>
       <c r="I798" s="8"/>
@@ -47401,7 +48139,7 @@
         <v>1032</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -47410,7 +48148,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H799" s="8"/>
       <c r="I799" s="8"/>
@@ -47426,7 +48164,7 @@
         <v>1032</v>
       </c>
       <c r="D800" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E800" s="8">
         <v>5</v>
@@ -47435,7 +48173,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H800" s="8"/>
       <c r="I800" s="8"/>
@@ -47451,7 +48189,7 @@
         <v>1032</v>
       </c>
       <c r="D801" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E801" s="9">
         <v>2</v>
@@ -47460,7 +48198,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="49" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H801" s="8"/>
       <c r="I801" s="8"/>
@@ -47476,7 +48214,7 @@
         <v>1032</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E802" s="8">
         <v>5</v>
@@ -47485,7 +48223,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H802" s="8"/>
       <c r="I802" s="8"/>
@@ -47501,7 +48239,7 @@
         <v>1032</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E803" s="9">
         <v>2</v>
@@ -47510,7 +48248,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="49" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H803" s="8"/>
       <c r="I803" s="8"/>
@@ -47526,7 +48264,7 @@
         <v>1032</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E804" s="8">
         <v>5</v>
@@ -47535,7 +48273,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H804" s="8"/>
       <c r="I804" s="8"/>
@@ -47551,7 +48289,7 @@
         <v>1032</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -47560,7 +48298,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
@@ -47576,7 +48314,7 @@
         <v>1032</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -47585,7 +48323,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="49" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H806" s="8"/>
       <c r="I806" s="8"/>
@@ -47601,7 +48339,7 @@
         <v>1032</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E807" s="9">
         <v>5</v>
@@ -47610,7 +48348,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H807" s="8"/>
       <c r="I807" s="8"/>
@@ -47626,7 +48364,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -47635,7 +48373,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="49" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
@@ -47676,7 +48414,7 @@
         <v>1032</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -47685,7 +48423,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H810" s="8"/>
       <c r="I810" s="8"/>
@@ -47710,7 +48448,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="10" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H811" s="8"/>
       <c r="I811" s="8"/>
@@ -47776,7 +48514,7 @@
         <v>1032</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E814" s="9">
         <v>5</v>
@@ -47785,7 +48523,7 @@
         <v>1</v>
       </c>
       <c r="G814" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H814" s="8"/>
       <c r="I814" s="8"/>
@@ -47798,19 +48536,19 @@
         <v>324</v>
       </c>
       <c r="C815" s="10" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D815" s="10" t="s">
         <v>1710</v>
       </c>
-      <c r="D815" s="10" t="s">
+      <c r="E815" s="8">
+        <v>2</v>
+      </c>
+      <c r="F815" s="8">
+        <v>1</v>
+      </c>
+      <c r="G815" s="10" t="s">
         <v>1711</v>
-      </c>
-      <c r="E815" s="8">
-        <v>2</v>
-      </c>
-      <c r="F815" s="8">
-        <v>1</v>
-      </c>
-      <c r="G815" s="10" t="s">
-        <v>1712</v>
       </c>
       <c r="H815" s="8"/>
       <c r="I815" s="8"/>
@@ -47826,7 +48564,7 @@
         <v>1032</v>
       </c>
       <c r="D816" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E816" s="8">
         <v>5</v>
@@ -47835,7 +48573,7 @@
         <v>1</v>
       </c>
       <c r="G816" s="10" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H816" s="8"/>
       <c r="I816" s="8"/>
@@ -47851,7 +48589,7 @@
         <v>852</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="E817" s="8">
         <v>2</v>
@@ -47876,7 +48614,7 @@
         <v>1032</v>
       </c>
       <c r="D818" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E818" s="8">
         <v>5</v>
@@ -47885,7 +48623,7 @@
         <v>2</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
@@ -47926,7 +48664,7 @@
         <v>1032</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E820" s="8">
         <v>5</v>
@@ -47935,7 +48673,7 @@
         <v>3</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
@@ -47951,7 +48689,7 @@
         <v>1032</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E821" s="9">
         <v>5</v>
@@ -47960,7 +48698,7 @@
         <v>1</v>
       </c>
       <c r="G821" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H821" s="8"/>
       <c r="I821" s="8"/>
@@ -47976,7 +48714,7 @@
         <v>1032</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -47985,7 +48723,7 @@
         <v>1</v>
       </c>
       <c r="G822" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H822" s="8"/>
       <c r="I822" s="8"/>
@@ -48001,7 +48739,7 @@
         <v>1032</v>
       </c>
       <c r="D823" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E823" s="14">
         <v>2</v>
@@ -48010,7 +48748,7 @@
         <v>1</v>
       </c>
       <c r="G823" s="15" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
@@ -48026,7 +48764,7 @@
         <v>1032</v>
       </c>
       <c r="D824" s="10" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E824" s="8">
         <v>2</v>
@@ -48035,7 +48773,7 @@
         <v>2</v>
       </c>
       <c r="G824" s="10" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="H824" s="8"/>
       <c r="I824" s="8"/>
@@ -48051,7 +48789,7 @@
         <v>1032</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -48060,7 +48798,7 @@
         <v>3</v>
       </c>
       <c r="G825" s="10" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H825" s="8"/>
       <c r="I825" s="8"/>
@@ -48076,7 +48814,7 @@
         <v>1032</v>
       </c>
       <c r="D826" s="10" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
       <c r="E826" s="8">
         <v>2</v>
@@ -48085,7 +48823,7 @@
         <v>4</v>
       </c>
       <c r="G826" s="10" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -48098,10 +48836,10 @@
         <v>328</v>
       </c>
       <c r="C827" s="49" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -48110,7 +48848,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="9" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
@@ -48126,7 +48864,7 @@
         <v>1032</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -48135,7 +48873,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="49" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
@@ -48151,7 +48889,7 @@
         <v>884</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -48160,7 +48898,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -48176,7 +48914,7 @@
         <v>1032</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -48185,7 +48923,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="49" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="H830" s="8"/>
       <c r="I830" s="8"/>
@@ -48235,7 +48973,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="100" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -48260,7 +48998,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="100" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -48285,7 +49023,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="10" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -48301,7 +49039,7 @@
         <v>1032</v>
       </c>
       <c r="D835" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -48310,7 +49048,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="49" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="H835" s="8"/>
       <c r="I835" s="8"/>
@@ -48351,7 +49089,7 @@
         <v>1032</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -48360,7 +49098,7 @@
         <v>1</v>
       </c>
       <c r="G837" s="9" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="H837" s="8"/>
       <c r="I837" s="8"/>
@@ -48401,7 +49139,7 @@
         <v>1032</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E839" s="9">
         <v>2</v>
@@ -48410,7 +49148,7 @@
         <v>1</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -48423,10 +49161,10 @@
         <v>336</v>
       </c>
       <c r="C840" s="84" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D840" s="85" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="E840" s="84">
         <v>5</v>
@@ -48435,7 +49173,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="85" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -48451,7 +49189,7 @@
         <v>1032</v>
       </c>
       <c r="D841" s="9" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E841" s="9">
         <v>5</v>
@@ -48460,7 +49198,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="9" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -48476,7 +49214,7 @@
         <v>1032</v>
       </c>
       <c r="D842" s="93" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="E842" s="92">
         <v>2</v>
@@ -48485,7 +49223,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="93" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -48510,7 +49248,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="93" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -48535,7 +49273,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="92" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -48551,7 +49289,7 @@
         <v>1032</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E845" s="14">
         <v>5</v>
@@ -48560,7 +49298,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="14" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="H845" s="8"/>
       <c r="I845" s="8"/>
@@ -48576,7 +49314,7 @@
         <v>1032</v>
       </c>
       <c r="D846" s="15" t="s">
-        <v>2155</v>
+        <v>2217</v>
       </c>
       <c r="E846" s="14">
         <v>5</v>
@@ -48584,8 +49322,8 @@
       <c r="F846" s="14">
         <v>1</v>
       </c>
-      <c r="G846" s="15" t="s">
-        <v>2156</v>
+      <c r="G846" s="14" t="s">
+        <v>1830</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -48598,10 +49336,10 @@
         <v>339</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -48610,7 +49348,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>859</v>
@@ -48630,7 +49368,7 @@
         <v>1146</v>
       </c>
       <c r="D848" s="10" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E848" s="8">
         <v>5</v>
@@ -48639,7 +49377,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="10" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -48655,7 +49393,7 @@
         <v>1146</v>
       </c>
       <c r="D849" s="10" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E849" s="8">
         <v>2</v>
@@ -48664,7 +49402,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="10" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="H849" s="8" t="s">
         <v>863</v>
@@ -48684,7 +49422,7 @@
         <v>1032</v>
       </c>
       <c r="D850" s="95" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="E850" s="94">
         <v>2</v>
@@ -48693,7 +49431,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="95" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
@@ -48718,7 +49456,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="95" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -48734,7 +49472,7 @@
         <v>1032</v>
       </c>
       <c r="D852" s="95" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="E852" s="94">
         <v>2</v>
@@ -48743,7 +49481,7 @@
         <v>2</v>
       </c>
       <c r="G852" s="95" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -48768,7 +49506,7 @@
         <v>2</v>
       </c>
       <c r="G853" s="95" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -48784,7 +49522,7 @@
         <v>1032</v>
       </c>
       <c r="D854" s="95" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="E854" s="94">
         <v>2</v>
@@ -48793,7 +49531,7 @@
         <v>3</v>
       </c>
       <c r="G854" s="95" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -48818,7 +49556,7 @@
         <v>3</v>
       </c>
       <c r="G855" s="95" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="H855" s="8"/>
       <c r="I855" s="8"/>
@@ -48834,7 +49572,7 @@
         <v>1032</v>
       </c>
       <c r="D856" s="94" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E856" s="94">
         <v>2</v>
@@ -48843,7 +49581,7 @@
         <v>4</v>
       </c>
       <c r="G856" s="95" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="H856" s="8"/>
       <c r="I856" s="8"/>
@@ -48868,7 +49606,7 @@
         <v>4</v>
       </c>
       <c r="G857" s="95" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="8" customFormat="1">
@@ -48879,7 +49617,7 @@
         <v>343</v>
       </c>
       <c r="C858" s="49" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="D858" s="9">
         <v>1</v>
@@ -48891,7 +49629,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="859" spans="1:9" s="8" customFormat="1">
@@ -48902,10 +49640,10 @@
         <v>343</v>
       </c>
       <c r="C859" s="10" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="D859" s="10" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -48914,7 +49652,7 @@
         <v>1</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="860" spans="1:9" s="94" customFormat="1">
@@ -48925,7 +49663,7 @@
         <v>343</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="D860" s="8">
         <v>9</v>
@@ -48937,7 +49675,7 @@
         <v>2</v>
       </c>
       <c r="G860" s="10" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -48953,7 +49691,7 @@
         <v>1146</v>
       </c>
       <c r="D861" s="10" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="E861" s="8">
         <v>5</v>
@@ -48962,7 +49700,7 @@
         <v>2</v>
       </c>
       <c r="G861" s="10" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -48978,7 +49716,7 @@
         <v>1146</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="E862" s="8">
         <v>2</v>
@@ -48987,7 +49725,7 @@
         <v>3</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
@@ -49003,7 +49741,7 @@
         <v>1146</v>
       </c>
       <c r="D863" s="10" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E863" s="8">
         <v>2</v>
@@ -49012,7 +49750,7 @@
         <v>4</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
@@ -49028,7 +49766,7 @@
         <v>852</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="E864" s="8">
         <v>5</v>
@@ -49078,7 +49816,7 @@
         <v>1032</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -49128,7 +49866,7 @@
         <v>852</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -49178,7 +49916,7 @@
         <v>1032</v>
       </c>
       <c r="D870" s="10" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -49228,7 +49966,7 @@
         <v>1142</v>
       </c>
       <c r="D872" s="10" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="E872" s="8">
         <v>2</v>
@@ -49237,7 +49975,7 @@
         <v>1</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="H872" s="8"/>
       <c r="I872" s="8"/>
@@ -49253,7 +49991,7 @@
         <v>1032</v>
       </c>
       <c r="D873" s="8" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
@@ -49262,7 +50000,7 @@
         <v>2</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="H873" s="8"/>
       <c r="I873" s="8"/>
@@ -49278,7 +50016,7 @@
         <v>1032</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -49287,7 +50025,7 @@
         <v>3</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -49301,7 +50039,7 @@
         <v>1032</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
@@ -49310,7 +50048,7 @@
         <v>4</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -49324,7 +50062,7 @@
         <v>1146</v>
       </c>
       <c r="D876" s="10" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="E876" s="8">
         <v>2</v>
@@ -49333,7 +50071,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -49347,7 +50085,7 @@
         <v>1142</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="E877" s="8">
         <v>5</v>
@@ -49356,7 +50094,7 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="8" customFormat="1">
@@ -49370,7 +50108,7 @@
         <v>1146</v>
       </c>
       <c r="D878" s="10" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E878" s="8">
         <v>2</v>
@@ -49379,7 +50117,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -49393,7 +50131,7 @@
         <v>1146</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -49416,7 +50154,7 @@
         <v>1142</v>
       </c>
       <c r="D880" s="10" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="E880" s="8">
         <v>5</v>
@@ -49425,7 +50163,7 @@
         <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="881" spans="1:9" s="8" customFormat="1">
@@ -49439,7 +50177,7 @@
         <v>1142</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -49448,7 +50186,7 @@
         <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="882" spans="1:9">
@@ -49459,10 +50197,10 @@
         <v>352</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="D882" s="10" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E882" s="8">
         <v>2</v>
@@ -49471,7 +50209,7 @@
         <v>2</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -49487,7 +50225,7 @@
         <v>1142</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E883" s="8">
         <v>2</v>
@@ -49496,7 +50234,7 @@
         <v>3</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -49509,10 +50247,10 @@
         <v>353</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="E884" s="8">
         <v>2</v>
@@ -49521,7 +50259,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="H884" s="8"/>
       <c r="I884" s="8"/>
@@ -49537,7 +50275,7 @@
         <v>1142</v>
       </c>
       <c r="D885" s="10" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E885" s="8">
         <v>5</v>
@@ -49546,7 +50284,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -49562,7 +50300,7 @@
         <v>1032</v>
       </c>
       <c r="D886" s="10" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="E886" s="8">
         <v>5</v>
@@ -49596,7 +50334,7 @@
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -49612,7 +50350,7 @@
         <v>1142</v>
       </c>
       <c r="D888" s="10" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="E888" s="8">
         <v>2</v>
@@ -49646,7 +50384,7 @@
         <v>2</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -49662,7 +50400,7 @@
         <v>1142</v>
       </c>
       <c r="D890" s="10" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="E890" s="8">
         <v>2</v>
@@ -49687,7 +50425,7 @@
         <v>1142</v>
       </c>
       <c r="D891" s="10" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E891" s="8">
         <v>5</v>
@@ -49696,7 +50434,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -49721,7 +50459,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -49737,7 +50475,7 @@
         <v>1142</v>
       </c>
       <c r="D893" s="10" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E893" s="8">
         <v>5</v>
@@ -49746,7 +50484,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="H893" s="8"/>
       <c r="I893" s="8"/>
@@ -49771,7 +50509,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -49796,7 +50534,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="896" spans="1:9">
@@ -49810,7 +50548,7 @@
         <v>1142</v>
       </c>
       <c r="D896" s="10" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E896" s="8">
         <v>5</v>
@@ -49819,7 +50557,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -49844,7 +50582,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -49869,7 +50607,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -49885,7 +50623,7 @@
         <v>1142</v>
       </c>
       <c r="D899" s="10" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E899" s="8">
         <v>5</v>
@@ -49894,7 +50632,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -49919,7 +50657,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -49935,7 +50673,7 @@
         <v>1142</v>
       </c>
       <c r="D901" s="10" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E901" s="8">
         <v>2</v>
@@ -49944,7 +50682,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="H901" s="8"/>
       <c r="I901" s="8"/>
@@ -49969,7 +50707,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H902" s="8"/>
       <c r="I902" s="8"/>
@@ -49985,7 +50723,7 @@
         <v>1142</v>
       </c>
       <c r="D903" s="10" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E903" s="8">
         <v>2</v>
@@ -49994,7 +50732,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -50017,7 +50755,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -50040,7 +50778,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -50054,7 +50792,7 @@
         <v>1142</v>
       </c>
       <c r="D906" s="10" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E906" s="8">
         <v>2</v>
@@ -50063,7 +50801,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -50086,7 +50824,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -50109,7 +50847,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -50123,7 +50861,7 @@
         <v>1142</v>
       </c>
       <c r="D909" s="10" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E909" s="8">
         <v>2</v>
@@ -50132,7 +50870,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -50155,7 +50893,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -50169,7 +50907,7 @@
         <v>1142</v>
       </c>
       <c r="D911" s="10" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E911" s="8">
         <v>2</v>
@@ -50178,7 +50916,7 @@
         <v>1</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -50201,7 +50939,7 @@
         <v>1</v>
       </c>
       <c r="G912" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -50215,7 +50953,7 @@
         <v>1142</v>
       </c>
       <c r="D913" s="10" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="E913" s="8">
         <v>2</v>
@@ -50224,7 +50962,7 @@
         <v>2</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -50247,7 +50985,7 @@
         <v>2</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -50270,7 +51008,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="10" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -50293,7 +51031,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="10" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -50307,7 +51045,7 @@
         <v>1032</v>
       </c>
       <c r="D917" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E917" s="8">
         <v>5</v>
@@ -50316,7 +51054,7 @@
         <v>1</v>
       </c>
       <c r="G917" s="8" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -50330,7 +51068,7 @@
         <v>1142</v>
       </c>
       <c r="D918" s="10" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="E918" s="8">
         <v>2</v>
@@ -50339,7 +51077,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -50350,10 +51088,10 @@
         <v>368</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="D919" s="10" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="E919" s="8">
         <v>2</v>
@@ -50362,7 +51100,7 @@
         <v>2</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -50376,7 +51114,7 @@
         <v>1142</v>
       </c>
       <c r="D920" s="10" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="E920" s="8">
         <v>2</v>
@@ -50385,7 +51123,7 @@
         <v>1</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -50399,7 +51137,7 @@
         <v>1142</v>
       </c>
       <c r="D921" s="10" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="E921" s="8">
         <v>5</v>
@@ -50408,7 +51146,7 @@
         <v>2</v>
       </c>
       <c r="G921" s="10" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="922" spans="1:7" s="8" customFormat="1">
@@ -50422,7 +51160,7 @@
         <v>1142</v>
       </c>
       <c r="D922" s="10" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E922" s="8">
         <v>5</v>
@@ -50431,7 +51169,7 @@
         <v>1</v>
       </c>
       <c r="G922" s="10" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="8" customFormat="1">
@@ -50445,7 +51183,7 @@
         <v>1142</v>
       </c>
       <c r="D923" s="10" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E923" s="8">
         <v>2</v>
@@ -50454,7 +51192,7 @@
         <v>1</v>
       </c>
       <c r="G923" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="20" customFormat="1">
@@ -50468,7 +51206,7 @@
         <v>1142</v>
       </c>
       <c r="D924" s="21" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E924" s="20">
         <v>5</v>
@@ -50477,7 +51215,7 @@
         <v>1</v>
       </c>
       <c r="G924" s="21" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="20" customFormat="1">
@@ -50491,7 +51229,7 @@
         <v>1142</v>
       </c>
       <c r="D925" s="21" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E925" s="20">
         <v>2</v>
@@ -50500,7 +51238,7 @@
         <v>1</v>
       </c>
       <c r="G925" s="21" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -50511,10 +51249,10 @@
         <v>374</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D926" s="10" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E926" s="8">
         <v>5</v>
@@ -50523,7 +51261,7 @@
         <v>1</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -50534,10 +51272,10 @@
         <v>375</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="D927" s="10" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
@@ -50546,7 +51284,7 @@
         <v>1</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -50557,10 +51295,10 @@
         <v>375</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="D928" s="10" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
@@ -50569,7 +51307,7 @@
         <v>2</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="929" spans="1:8" s="8" customFormat="1">
@@ -50580,10 +51318,10 @@
         <v>376</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E929" s="8">
         <v>2</v>
@@ -50592,7 +51330,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="930" spans="1:8" s="8" customFormat="1">
@@ -50603,10 +51341,10 @@
         <v>377</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -50615,7 +51353,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="931" spans="1:8" s="8" customFormat="1">
@@ -50626,10 +51364,10 @@
         <v>378</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="D931" s="10" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -50638,7 +51376,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="932" spans="1:8" s="8" customFormat="1">
@@ -50652,7 +51390,7 @@
         <v>1143</v>
       </c>
       <c r="D932" s="10" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E932" s="8">
         <v>2</v>
@@ -50661,7 +51399,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="10" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="933" spans="1:8" s="8" customFormat="1">
@@ -50684,7 +51422,7 @@
         <v>1</v>
       </c>
       <c r="G933" s="10" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -50698,7 +51436,7 @@
         <v>1032</v>
       </c>
       <c r="D934" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E934" s="8">
         <v>5</v>
@@ -50707,7 +51445,7 @@
         <v>1</v>
       </c>
       <c r="G934" s="8" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="H934" s="8"/>
     </row>
@@ -50719,10 +51457,10 @@
         <v>380</v>
       </c>
       <c r="C935" s="8" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="D935" s="104" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
@@ -50731,7 +51469,7 @@
         <v>1</v>
       </c>
       <c r="G935" s="8" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="H935" s="8"/>
     </row>
@@ -50746,7 +51484,7 @@
         <v>1032</v>
       </c>
       <c r="D936" s="8" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
@@ -50755,7 +51493,7 @@
         <v>2</v>
       </c>
       <c r="G936" s="10" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="H936" s="8"/>
     </row>
@@ -50767,10 +51505,10 @@
         <v>380</v>
       </c>
       <c r="C937" s="8" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="D937" s="10" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
@@ -50779,7 +51517,7 @@
         <v>2</v>
       </c>
       <c r="G937" s="8" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="H937" s="8"/>
     </row>
@@ -50803,7 +51541,7 @@
         <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -50850,7 +51588,7 @@
         <v>2</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -50874,7 +51612,7 @@
         <v>3</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -50898,7 +51636,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -50922,7 +51660,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -50946,7 +51684,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -50970,7 +51708,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="H945" s="8"/>
     </row>
@@ -50994,7 +51732,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="H946" s="8"/>
     </row>
@@ -51018,7 +51756,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="H947" s="8"/>
     </row>
@@ -51042,7 +51780,7 @@
         <v>1</v>
       </c>
       <c r="G948" s="10" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="949" spans="1:8" s="8" customFormat="1">
@@ -51053,7 +51791,7 @@
         <v>386</v>
       </c>
       <c r="C949" s="10" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="D949" s="10">
         <v>1</v>
@@ -51065,7 +51803,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="10" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -51088,7 +51826,7 @@
         <v>1</v>
       </c>
       <c r="G950" s="9" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="951" spans="1:8" s="8" customFormat="1">
@@ -51099,10 +51837,10 @@
         <v>388</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="E951" s="8">
         <v>5</v>
@@ -51122,10 +51860,10 @@
         <v>388</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="D952" s="10" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="E952" s="8">
         <v>2</v>
@@ -51180,7 +51918,7 @@
         <v>2</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -51203,7 +51941,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -51226,7 +51964,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -51249,7 +51987,7 @@
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -51272,7 +52010,7 @@
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="8" customFormat="1">
@@ -51283,7 +52021,7 @@
         <v>391</v>
       </c>
       <c r="C959" s="10" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="D959" s="8">
         <v>12</v>
@@ -51295,7 +52033,7 @@
         <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
@@ -51318,7 +52056,7 @@
         <v>1</v>
       </c>
       <c r="G960" s="10" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="961" spans="1:9" s="8" customFormat="1">
@@ -51341,7 +52079,7 @@
         <v>1</v>
       </c>
       <c r="G961" s="8" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="962" spans="1:9" s="8" customFormat="1">
@@ -51355,7 +52093,7 @@
         <v>1143</v>
       </c>
       <c r="D962" s="10" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E962" s="8">
         <v>5</v>
@@ -51364,7 +52102,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="963" spans="1:9" s="8" customFormat="1">
@@ -51378,7 +52116,7 @@
         <v>1143</v>
       </c>
       <c r="D963" s="10" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E963" s="8">
         <v>2</v>
@@ -51387,7 +52125,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="964" spans="1:9" s="8" customFormat="1">
@@ -51401,7 +52139,7 @@
         <v>1142</v>
       </c>
       <c r="D964" s="10" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E964" s="8">
         <v>2</v>
@@ -51410,7 +52148,7 @@
         <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="965" spans="1:9" s="8" customFormat="1">
@@ -51424,7 +52162,7 @@
         <v>1142</v>
       </c>
       <c r="D965" s="64" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E965" s="8">
         <v>2</v>
@@ -51433,7 +52171,7 @@
         <v>1</v>
       </c>
       <c r="G965" s="8" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="966" spans="1:9" s="8" customFormat="1">
@@ -51447,7 +52185,7 @@
         <v>1142</v>
       </c>
       <c r="D966" s="64" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="E966" s="8">
         <v>2</v>
@@ -51456,7 +52194,7 @@
         <v>2</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="967" spans="1:9" s="8" customFormat="1">
@@ -51470,7 +52208,7 @@
         <v>1142</v>
       </c>
       <c r="D967" s="64" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E967" s="8">
         <v>5</v>
@@ -51479,7 +52217,7 @@
         <v>2</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="968" spans="1:9" s="8" customFormat="1">
@@ -51502,7 +52240,7 @@
         <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="969" spans="1:9" s="8" customFormat="1">
@@ -51516,7 +52254,7 @@
         <v>1142</v>
       </c>
       <c r="D969" s="64" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E969" s="8">
         <v>2</v>
@@ -51525,7 +52263,7 @@
         <v>2</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="970" spans="1:9" s="8" customFormat="1">
@@ -51548,7 +52286,7 @@
         <v>1</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="971" spans="1:9">
@@ -51562,7 +52300,7 @@
         <v>1142</v>
       </c>
       <c r="D971" s="21" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E971" s="20">
         <v>5</v>
@@ -51571,7 +52309,7 @@
         <v>1</v>
       </c>
       <c r="G971" s="21" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="H971" s="8"/>
       <c r="I971" s="8"/>
@@ -51596,7 +52334,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="21" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="H972" s="8"/>
       <c r="I972" s="8"/>
@@ -51612,7 +52350,7 @@
         <v>1142</v>
       </c>
       <c r="D973" s="21" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E973" s="20">
         <v>2</v>
@@ -51621,7 +52359,7 @@
         <v>1</v>
       </c>
       <c r="G973" s="21" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="H973" s="8" t="s">
         <v>863</v>
@@ -51650,7 +52388,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="H974" s="8" t="s">
         <v>863</v>
@@ -51679,7 +52417,7 @@
         <v>1</v>
       </c>
       <c r="G975" s="21" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="976" spans="1:9" s="8" customFormat="1">
@@ -51702,7 +52440,7 @@
         <v>1</v>
       </c>
       <c r="G976" s="21" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -51716,7 +52454,7 @@
         <v>1032</v>
       </c>
       <c r="D977" s="95" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E977" s="8">
         <v>2</v>
@@ -51725,7 +52463,7 @@
         <v>1</v>
       </c>
       <c r="G977" s="8" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -51739,7 +52477,7 @@
         <v>1142</v>
       </c>
       <c r="D978" s="95" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
@@ -51748,7 +52486,7 @@
         <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -51762,7 +52500,7 @@
         <v>1032</v>
       </c>
       <c r="D979" s="95" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E979" s="8">
         <v>2</v>
@@ -51771,7 +52509,7 @@
         <v>1</v>
       </c>
       <c r="G979" s="8" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -51785,7 +52523,7 @@
         <v>1142</v>
       </c>
       <c r="D980" s="95" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="E980" s="8">
         <v>2</v>
@@ -51794,7 +52532,7 @@
         <v>1</v>
       </c>
       <c r="G980" s="10" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -51817,7 +52555,191 @@
         <v>1</v>
       </c>
       <c r="G981" s="49" t="s">
-        <v>2146</v>
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7">
+      <c r="A982" s="8">
+        <v>981</v>
+      </c>
+      <c r="B982" s="9">
+        <v>406</v>
+      </c>
+      <c r="C982" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D982" s="20">
+        <v>3</v>
+      </c>
+      <c r="E982" s="20">
+        <v>4</v>
+      </c>
+      <c r="F982" s="20">
+        <v>1</v>
+      </c>
+      <c r="G982" s="21" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7">
+      <c r="A983" s="8">
+        <v>982</v>
+      </c>
+      <c r="B983" s="9">
+        <v>406</v>
+      </c>
+      <c r="C983" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D983" s="21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E983" s="20">
+        <v>5</v>
+      </c>
+      <c r="F983" s="20">
+        <v>1</v>
+      </c>
+      <c r="G983" s="21" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7">
+      <c r="A984" s="8">
+        <v>983</v>
+      </c>
+      <c r="B984" s="9">
+        <v>407</v>
+      </c>
+      <c r="C984" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D984" s="20">
+        <v>4</v>
+      </c>
+      <c r="E984" s="20">
+        <v>3</v>
+      </c>
+      <c r="F984" s="20">
+        <v>1</v>
+      </c>
+      <c r="G984" s="21" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="A985" s="8">
+        <v>984</v>
+      </c>
+      <c r="B985" s="9">
+        <v>407</v>
+      </c>
+      <c r="C985" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D985" s="21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E985" s="20">
+        <v>5</v>
+      </c>
+      <c r="F985" s="20">
+        <v>1</v>
+      </c>
+      <c r="G985" s="21" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" s="8">
+        <v>985</v>
+      </c>
+      <c r="B986" s="9">
+        <v>408</v>
+      </c>
+      <c r="C986" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D986" s="20">
+        <v>3</v>
+      </c>
+      <c r="E986" s="20">
+        <v>4</v>
+      </c>
+      <c r="F986" s="20">
+        <v>1</v>
+      </c>
+      <c r="G986" s="21" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" s="8">
+        <v>986</v>
+      </c>
+      <c r="B987" s="9">
+        <v>408</v>
+      </c>
+      <c r="C987" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D987" s="21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E987" s="20">
+        <v>2</v>
+      </c>
+      <c r="F987" s="20">
+        <v>1</v>
+      </c>
+      <c r="G987" s="21" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="8">
+        <v>987</v>
+      </c>
+      <c r="B988" s="9">
+        <v>409</v>
+      </c>
+      <c r="C988" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D988" s="20">
+        <v>4</v>
+      </c>
+      <c r="E988" s="20">
+        <v>3</v>
+      </c>
+      <c r="F988" s="20">
+        <v>1</v>
+      </c>
+      <c r="G988" s="21" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="8">
+        <v>988</v>
+      </c>
+      <c r="B989" s="9">
+        <v>409</v>
+      </c>
+      <c r="C989" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D989" s="21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E989" s="20">
+        <v>2</v>
+      </c>
+      <c r="F989" s="20">
+        <v>1</v>
+      </c>
+      <c r="G989" s="21" t="s">
+        <v>1875</v>
       </c>
     </row>
   </sheetData>
@@ -51875,7 +52797,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>884</v>
@@ -51950,7 +52872,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -51967,13 +52889,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1796</v>
+        <v>2171</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -51990,22 +52912,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>1595</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -52013,13 +52935,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1990</v>
+        <v>2169</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -52028,7 +52950,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -52036,13 +52958,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -52051,7 +52973,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -52059,13 +52981,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -52074,7 +52996,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -52082,13 +53004,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -52097,7 +53019,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -52105,13 +53027,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>2150</v>
+        <v>2155</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>2151</v>
+        <v>2156</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -52128,13 +53050,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>2152</v>
+        <v>2158</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>2153</v>
+        <v>2168</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -52143,7 +53065,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -52157,7 +53079,7 @@
         <v>884</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2162</v>
+        <v>2170</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -52166,7 +53088,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -52174,13 +53096,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -52189,7 +53111,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
   </sheetData>
@@ -52282,7 +53204,7 @@
         <v>852</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/config_aomi/permission_server_config.xlsx
+++ b/config_aomi/permission_server_config.xlsx
@@ -9723,7 +9723,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"vivo","xiaomi","yyb_hlttby","xiaomi_byam",</t>
+    <t>"vivo","xiaomi","yyb_hlttby","xiaomi_byam","yyb_byam",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
